--- a/Scent_Full.xlsx
+++ b/Scent_Full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineeisen/github/oenothera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F544A-45BB-574B-87F3-5CC52DF888B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B760937-1B54-BA49-AD53-F1F56C2C7028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="1640" windowWidth="43520" windowHeight="16580" xr2:uid="{93388E73-787E-A747-9D5E-D46935361090}"/>
+    <workbookView xWindow="620" yWindow="4080" windowWidth="49440" windowHeight="17800" xr2:uid="{93388E73-787E-A747-9D5E-D46935361090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,137 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Compounds</t>
   </si>
   <si>
-    <t>2methylbutyronitrile</t>
-  </si>
-  <si>
-    <t>3methylbutyronitrile</t>
-  </si>
-  <si>
-    <t>b-myrcene</t>
-  </si>
-  <si>
-    <t>cis-b-ocimene</t>
-  </si>
-  <si>
-    <t>trans-b-ocimene</t>
-  </si>
-  <si>
-    <t>nitro-2-methyl-butane</t>
-  </si>
-  <si>
-    <t>nitro-3-methyl-butane</t>
-  </si>
-  <si>
-    <t>linalool</t>
-  </si>
-  <si>
-    <t>beta-caryophyllene</t>
-  </si>
-  <si>
-    <t>geraniol</t>
-  </si>
-  <si>
-    <t>2phenylethanol</t>
-  </si>
-  <si>
-    <t>phenylacetonitrile</t>
-  </si>
-  <si>
-    <t>nerolidol</t>
-  </si>
-  <si>
-    <t>nitrophenylethane</t>
-  </si>
-  <si>
-    <t>phenylacetaldoxime</t>
-  </si>
-  <si>
-    <t>isophytol</t>
-  </si>
-  <si>
-    <t>farnesol</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>peaks</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>trans-isobutyraldoxime</t>
-  </si>
-  <si>
-    <t>cis-isobutyraldoxime</t>
-  </si>
-  <si>
-    <t>cis-furanoid-linalool-oxide</t>
-  </si>
-  <si>
-    <t>trans-furanoid-linalool-oxide</t>
-  </si>
-  <si>
-    <t>pyran-lin-oxide-ketone</t>
-  </si>
-  <si>
-    <t>trans-2-methylbutyraldoxime</t>
-  </si>
-  <si>
-    <t>trans-3-methylbutyraldoxime</t>
-  </si>
-  <si>
-    <t>cis-2-methylbutyraldoxime</t>
-  </si>
-  <si>
-    <t>cis-3-methylbutyraldoxime</t>
-  </si>
-  <si>
-    <t>neral</t>
-  </si>
-  <si>
-    <t>Z-E-alpha-farnesene</t>
-  </si>
-  <si>
-    <t>geranial</t>
-  </si>
-  <si>
-    <t>alpha-terpineol</t>
-  </si>
-  <si>
-    <t>alpha-humulene</t>
-  </si>
-  <si>
-    <t>beta-farnesene</t>
-  </si>
-  <si>
-    <t>E-E-alpha-farnesene</t>
-  </si>
-  <si>
-    <t>cis-pyranoid-linalool-oxide</t>
-  </si>
-  <si>
-    <t>trans-pyranoid-linalool-oxide</t>
-  </si>
-  <si>
-    <t>nerol</t>
-  </si>
-  <si>
-    <t>2methylbutyl-benzoate</t>
-  </si>
-  <si>
-    <t>farnesene-epoxide</t>
-  </si>
-  <si>
-    <t>caryophyllene-oxide</t>
-  </si>
-  <si>
     <t>Samp.rm3-1-A</t>
   </si>
   <si>
@@ -445,6 +319,345 @@
   </si>
   <si>
     <t>Samp.rm5-29-B</t>
+  </si>
+  <si>
+    <t>Samp.rm3-4-B</t>
+  </si>
+  <si>
+    <t>Comp.2methylbutyronitrile</t>
+  </si>
+  <si>
+    <t>Comp.3methylbutyronitrile</t>
+  </si>
+  <si>
+    <t>Comp.b-myrcene</t>
+  </si>
+  <si>
+    <t>Comp.cis-b-ocimene</t>
+  </si>
+  <si>
+    <t>Comp.trans-b-ocimene</t>
+  </si>
+  <si>
+    <t>Comp.nitro-2-methyl-butane</t>
+  </si>
+  <si>
+    <t>Comp.nitro-3-methyl-butane</t>
+  </si>
+  <si>
+    <t>Comp.trans-isobutyraldoxime</t>
+  </si>
+  <si>
+    <t>Comp.cis-isobutyraldoxime</t>
+  </si>
+  <si>
+    <t>Comp.cis-furanoid-linalool-oxide</t>
+  </si>
+  <si>
+    <t>Comp.trans-furanoid-linalool-oxide</t>
+  </si>
+  <si>
+    <t>Comp.pyran-lin-oxide-ketone</t>
+  </si>
+  <si>
+    <t>Comp.trans-2-methylbutyraldoxime</t>
+  </si>
+  <si>
+    <t>Comp.trans-3-methylbutyraldoxime</t>
+  </si>
+  <si>
+    <t>Comp.cis-2-methylbutyraldoxime</t>
+  </si>
+  <si>
+    <t>Comp.cis-3-methylbutyraldoxime</t>
+  </si>
+  <si>
+    <t>Comp.linalool</t>
+  </si>
+  <si>
+    <t>Comp.beta-caryophyllene</t>
+  </si>
+  <si>
+    <t>Comp.beta-farnesene</t>
+  </si>
+  <si>
+    <t>Comp.alpha-humulene</t>
+  </si>
+  <si>
+    <t>Comp.neral</t>
+  </si>
+  <si>
+    <t>Comp.alpha-terpineol</t>
+  </si>
+  <si>
+    <t>Comp.Z-E-alpha-farnesene</t>
+  </si>
+  <si>
+    <t>Comp.geranial</t>
+  </si>
+  <si>
+    <t>Comp.cis-pyranoid-linalool-oxide</t>
+  </si>
+  <si>
+    <t>Comp.E-E-alpha-farnesene</t>
+  </si>
+  <si>
+    <t>Comp.trans-pyranoid-linalool-oxide</t>
+  </si>
+  <si>
+    <t>Comp.nerol</t>
+  </si>
+  <si>
+    <t>Comp.geraniol</t>
+  </si>
+  <si>
+    <t>Comp.2methylbutyl-benzoate</t>
+  </si>
+  <si>
+    <t>Comp.2phenylethanol</t>
+  </si>
+  <si>
+    <t>Comp.phenylacetonitrile</t>
+  </si>
+  <si>
+    <t>Comp.farnesene-epoxide</t>
+  </si>
+  <si>
+    <t>Comp.caryophyllene-oxide</t>
+  </si>
+  <si>
+    <t>Comp.nerolidol</t>
+  </si>
+  <si>
+    <t>Comp.nitrophenylethane</t>
+  </si>
+  <si>
+    <t>Comp.phenylacetaldoxime</t>
+  </si>
+  <si>
+    <t>Comp.isophytol</t>
+  </si>
+  <si>
+    <t>Comp.farnesol</t>
+  </si>
+  <si>
+    <t>Samp.rm2-1-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-3-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-5-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-5-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-6-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-7-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-8-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-9-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-9-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-9-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-9-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-11-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-11-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-11-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-11-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-13-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-13-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-13-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-13-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-15-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-15-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-15-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-16-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-16-B</t>
+  </si>
+  <si>
+    <t>Samp.mr2-16-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-16-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-17-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-17-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-17-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-17-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-18-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-18-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-18-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-18-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-19-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-20-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-20-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-21-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-21-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-23-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-23-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-23-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-23-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-25-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-25-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-25-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-25-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-26-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-27-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-27-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-28-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-28-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-28-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-28-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-28-E</t>
+  </si>
+  <si>
+    <t>Samp.rm2-29-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-29-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-30-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-31-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-31-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-31-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-C</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-D</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-E</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-F</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-G</t>
+  </si>
+  <si>
+    <t>Samp.rm2-32-H</t>
+  </si>
+  <si>
+    <t>Samp.rm2-33-A</t>
+  </si>
+  <si>
+    <t>Samp.rm2-33-B</t>
+  </si>
+  <si>
+    <t>Samp.rm2-33-C</t>
+  </si>
+  <si>
+    <t>Comp.citronellol</t>
   </si>
 </sst>
 </file>
@@ -467,17 +680,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,10 +718,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,320 +1038,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFF8414-7EF6-9A48-85B8-C56F3923DF5D}">
-  <dimension ref="A1:CU40"/>
+  <dimension ref="A1:FO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CU1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="86" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="99" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="CV1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CY1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CZ1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="DB1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="DD1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="DI1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="DJ1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="DK1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="DL1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="DM1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DN1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="DP1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="DQ1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="DR1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="DT1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DU1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="DX1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DZ1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="EA1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="EB1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="EC1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="ED1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="EE1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="EK1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="EN1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="EP1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EQ1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="ER1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="ES1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="EU1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="EV1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="EW1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="EX1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="EY1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="EZ1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="FA1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="FB1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="FC1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="FE1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="FF1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="FG1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="FH1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="FK1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="FL1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="FM1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="FN1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="FO1" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>99</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="M2" s="2"/>
       <c r="Q2">
@@ -1189,7 +1619,7 @@
       <c r="BL2" s="3">
         <v>22811</v>
       </c>
-      <c r="BM2" s="7"/>
+      <c r="BM2" s="5"/>
       <c r="BN2">
         <v>30195</v>
       </c>
@@ -1271,7 +1701,7 @@
       <c r="CP2">
         <v>60393</v>
       </c>
-      <c r="CR2">
+      <c r="CQ2">
         <v>11075</v>
       </c>
       <c r="CS2">
@@ -1280,10 +1710,179 @@
       <c r="CU2">
         <v>39858</v>
       </c>
+      <c r="CW2">
+        <v>47992</v>
+      </c>
+      <c r="CZ2">
+        <v>39625</v>
+      </c>
+      <c r="DD2">
+        <v>44190</v>
+      </c>
+      <c r="DE2">
+        <v>51761</v>
+      </c>
+      <c r="DF2">
+        <v>28616</v>
+      </c>
+      <c r="DG2">
+        <v>38943</v>
+      </c>
+      <c r="DH2">
+        <v>39433</v>
+      </c>
+      <c r="DI2">
+        <v>128984</v>
+      </c>
+      <c r="DJ2">
+        <v>57891</v>
+      </c>
+      <c r="DL2">
+        <v>54188</v>
+      </c>
+      <c r="DM2">
+        <v>74293</v>
+      </c>
+      <c r="DN2">
+        <v>73857</v>
+      </c>
+      <c r="DO2">
+        <v>32684</v>
+      </c>
+      <c r="DP2">
+        <v>13362</v>
+      </c>
+      <c r="DR2">
+        <v>13182</v>
+      </c>
+      <c r="DS2">
+        <v>16653</v>
+      </c>
+      <c r="DT2">
+        <v>68719</v>
+      </c>
+      <c r="DU2">
+        <v>57821</v>
+      </c>
+      <c r="DV2">
+        <v>67416</v>
+      </c>
+      <c r="DW2">
+        <v>51465</v>
+      </c>
+      <c r="DX2">
+        <v>46964</v>
+      </c>
+      <c r="DY2">
+        <v>108621</v>
+      </c>
+      <c r="DZ2">
+        <v>14532</v>
+      </c>
+      <c r="EA2">
+        <v>219</v>
+      </c>
+      <c r="EB2">
+        <v>51897</v>
+      </c>
+      <c r="EC2">
+        <v>18994</v>
+      </c>
+      <c r="ED2">
+        <v>34610</v>
+      </c>
+      <c r="EE2">
+        <v>8329</v>
+      </c>
+      <c r="EF2">
+        <v>53321</v>
+      </c>
+      <c r="EI2">
+        <v>32896</v>
+      </c>
+      <c r="EJ2">
+        <v>59611</v>
+      </c>
+      <c r="EK2">
+        <v>71439</v>
+      </c>
+      <c r="EL2">
+        <v>60477</v>
+      </c>
+      <c r="EM2">
+        <v>33941</v>
+      </c>
+      <c r="EN2">
+        <v>39748</v>
+      </c>
+      <c r="EO2">
+        <v>9975</v>
+      </c>
+      <c r="EP2">
+        <v>18688</v>
+      </c>
+      <c r="EQ2">
+        <v>8063</v>
+      </c>
+      <c r="ER2">
+        <v>7506</v>
+      </c>
+      <c r="ES2">
+        <v>13963</v>
+      </c>
+      <c r="ET2">
+        <v>128720</v>
+      </c>
+      <c r="EU2">
+        <v>19028</v>
+      </c>
+      <c r="EV2">
+        <v>146181</v>
+      </c>
+      <c r="EW2">
+        <v>96419</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>19002</v>
+      </c>
+      <c r="EY2">
+        <v>10428</v>
+      </c>
+      <c r="EZ2">
+        <v>16643</v>
+      </c>
+      <c r="FA2">
+        <v>42223</v>
+      </c>
+      <c r="FB2">
+        <v>8729</v>
+      </c>
+      <c r="FC2">
+        <v>5975</v>
+      </c>
+      <c r="FE2">
+        <v>21552</v>
+      </c>
+      <c r="FG2">
+        <v>15351</v>
+      </c>
+      <c r="FH2">
+        <v>7334</v>
+      </c>
+      <c r="FI2">
+        <v>9538</v>
+      </c>
+      <c r="FJ2">
+        <v>9055</v>
+      </c>
+      <c r="FK2">
+        <v>20439</v>
+      </c>
+      <c r="FO2" s="3"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3">
@@ -1327,7 +1926,7 @@
         <v>93057</v>
       </c>
       <c r="BH3" s="2"/>
-      <c r="BJ3" s="8"/>
+      <c r="BJ3" s="6"/>
       <c r="BK3">
         <v>72145</v>
       </c>
@@ -1416,18 +2015,211 @@
         <v>32138</v>
       </c>
       <c r="CQ3">
+        <v>29066</v>
+      </c>
+      <c r="CR3">
         <v>36600</v>
-      </c>
-      <c r="CR3">
-        <v>29066</v>
       </c>
       <c r="CT3">
         <v>21024</v>
       </c>
+      <c r="CV3">
+        <v>151736</v>
+      </c>
+      <c r="CX3">
+        <v>243743</v>
+      </c>
+      <c r="CY3">
+        <v>161171</v>
+      </c>
+      <c r="CZ3">
+        <v>131989</v>
+      </c>
+      <c r="DA3">
+        <v>148605</v>
+      </c>
+      <c r="DB3">
+        <v>132308</v>
+      </c>
+      <c r="DC3">
+        <v>33523</v>
+      </c>
+      <c r="DD3">
+        <v>33253</v>
+      </c>
+      <c r="DE3">
+        <v>65016</v>
+      </c>
+      <c r="DF3">
+        <v>37952</v>
+      </c>
+      <c r="DG3">
+        <v>39480</v>
+      </c>
+      <c r="DH3">
+        <v>69033</v>
+      </c>
+      <c r="DI3">
+        <v>118824</v>
+      </c>
+      <c r="DJ3">
+        <v>79090</v>
+      </c>
+      <c r="DK3">
+        <v>768561</v>
+      </c>
+      <c r="DL3">
+        <v>22426</v>
+      </c>
+      <c r="DM3">
+        <v>100058</v>
+      </c>
+      <c r="DN3">
+        <v>107188</v>
+      </c>
+      <c r="DP3">
+        <v>9617</v>
+      </c>
+      <c r="DR3">
+        <v>52300</v>
+      </c>
+      <c r="DS3">
+        <v>38350</v>
+      </c>
+      <c r="DT3">
+        <v>113353</v>
+      </c>
+      <c r="DU3">
+        <v>19805</v>
+      </c>
+      <c r="DV3">
+        <v>54605</v>
+      </c>
+      <c r="DW3">
+        <v>54913</v>
+      </c>
+      <c r="DX3">
+        <v>38001</v>
+      </c>
+      <c r="DY3">
+        <v>112439</v>
+      </c>
+      <c r="DZ3">
+        <v>48616</v>
+      </c>
+      <c r="EA3">
+        <v>34565</v>
+      </c>
+      <c r="EB3">
+        <v>61133</v>
+      </c>
+      <c r="ED3">
+        <v>42738</v>
+      </c>
+      <c r="EE3">
+        <v>132598</v>
+      </c>
+      <c r="EG3">
+        <v>208572</v>
+      </c>
+      <c r="EH3">
+        <v>330507</v>
+      </c>
+      <c r="EI3">
+        <v>63925</v>
+      </c>
+      <c r="EJ3">
+        <v>68882</v>
+      </c>
+      <c r="EK3">
+        <v>78831</v>
+      </c>
+      <c r="EL3">
+        <v>56515</v>
+      </c>
+      <c r="EM3">
+        <v>20462</v>
+      </c>
+      <c r="EN3">
+        <v>62592</v>
+      </c>
+      <c r="EO3">
+        <v>16337</v>
+      </c>
+      <c r="EP3">
+        <v>16976</v>
+      </c>
+      <c r="EQ3">
+        <v>33607</v>
+      </c>
+      <c r="ER3">
+        <v>405131</v>
+      </c>
+      <c r="ES3">
+        <v>454086</v>
+      </c>
+      <c r="ET3">
+        <v>31136</v>
+      </c>
+      <c r="EU3">
+        <v>16819</v>
+      </c>
+      <c r="EV3">
+        <v>62071</v>
+      </c>
+      <c r="EW3">
+        <v>58976</v>
+      </c>
+      <c r="EX3" s="2">
+        <v>11695</v>
+      </c>
+      <c r="EY3">
+        <v>542308</v>
+      </c>
+      <c r="EZ3">
+        <v>216272</v>
+      </c>
+      <c r="FA3">
+        <v>42068</v>
+      </c>
+      <c r="FB3">
+        <v>209428</v>
+      </c>
+      <c r="FC3">
+        <v>318696</v>
+      </c>
+      <c r="FD3">
+        <v>54083</v>
+      </c>
+      <c r="FE3" s="8">
+        <v>20861</v>
+      </c>
+      <c r="FG3">
+        <v>80949</v>
+      </c>
+      <c r="FH3">
+        <v>75318</v>
+      </c>
+      <c r="FI3">
+        <v>94526</v>
+      </c>
+      <c r="FJ3">
+        <v>88668</v>
+      </c>
+      <c r="FK3">
+        <v>94374</v>
+      </c>
+      <c r="FM3">
+        <v>61413</v>
+      </c>
+      <c r="FN3">
+        <v>46022</v>
+      </c>
+      <c r="FO3" s="3"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>125437</v>
@@ -1518,7 +2310,7 @@
       <c r="BL4" s="3">
         <v>6367</v>
       </c>
-      <c r="BM4" s="7">
+      <c r="BM4" s="5">
         <v>16965</v>
       </c>
       <c r="BN4">
@@ -1569,7 +2361,7 @@
       <c r="CP4">
         <v>94041</v>
       </c>
-      <c r="CQ4">
+      <c r="CR4">
         <v>14885</v>
       </c>
       <c r="CS4">
@@ -1581,10 +2373,176 @@
       <c r="CU4">
         <v>264613</v>
       </c>
+      <c r="CX4">
+        <v>17768</v>
+      </c>
+      <c r="CY4">
+        <v>40680</v>
+      </c>
+      <c r="DA4">
+        <v>9703</v>
+      </c>
+      <c r="DB4">
+        <v>15983</v>
+      </c>
+      <c r="DC4">
+        <v>256767</v>
+      </c>
+      <c r="DD4">
+        <v>187382</v>
+      </c>
+      <c r="DE4">
+        <v>376747</v>
+      </c>
+      <c r="DF4">
+        <v>199294</v>
+      </c>
+      <c r="DH4">
+        <v>33371</v>
+      </c>
+      <c r="DI4">
+        <v>42992</v>
+      </c>
+      <c r="DJ4">
+        <v>27966</v>
+      </c>
+      <c r="DK4">
+        <v>35337</v>
+      </c>
+      <c r="DM4">
+        <v>59809</v>
+      </c>
+      <c r="DN4">
+        <v>57688</v>
+      </c>
+      <c r="DO4">
+        <v>27580</v>
+      </c>
+      <c r="DP4">
+        <v>28090</v>
+      </c>
+      <c r="DR4">
+        <v>38325</v>
+      </c>
+      <c r="DS4">
+        <v>429279</v>
+      </c>
+      <c r="DT4">
+        <v>157434</v>
+      </c>
+      <c r="DV4">
+        <v>45652</v>
+      </c>
+      <c r="DW4">
+        <v>32886</v>
+      </c>
+      <c r="DX4">
+        <v>13222</v>
+      </c>
+      <c r="EB4">
+        <v>38792</v>
+      </c>
+      <c r="ED4">
+        <v>17367</v>
+      </c>
+      <c r="EH4">
+        <v>8928</v>
+      </c>
+      <c r="EI4">
+        <v>174665</v>
+      </c>
+      <c r="EJ4">
+        <v>165509</v>
+      </c>
+      <c r="EK4">
+        <v>238593</v>
+      </c>
+      <c r="EL4">
+        <v>180758</v>
+      </c>
+      <c r="EM4">
+        <v>134779</v>
+      </c>
+      <c r="EN4">
+        <v>134779</v>
+      </c>
+      <c r="EO4">
+        <v>34632</v>
+      </c>
+      <c r="EP4">
+        <v>56182</v>
+      </c>
+      <c r="EQ4">
+        <v>123358</v>
+      </c>
+      <c r="ER4">
+        <v>361372</v>
+      </c>
+      <c r="ES4">
+        <v>339895</v>
+      </c>
+      <c r="ET4">
+        <v>43725</v>
+      </c>
+      <c r="EV4">
+        <v>117658</v>
+      </c>
+      <c r="EW4">
+        <v>107776</v>
+      </c>
+      <c r="EX4" s="2">
+        <v>6867</v>
+      </c>
+      <c r="EY4">
+        <v>213513</v>
+      </c>
+      <c r="EZ4">
+        <v>142286</v>
+      </c>
+      <c r="FA4">
+        <v>63544</v>
+      </c>
+      <c r="FB4">
+        <v>16512</v>
+      </c>
+      <c r="FC4">
+        <v>60426</v>
+      </c>
+      <c r="FD4">
+        <v>15538</v>
+      </c>
+      <c r="FE4" s="8">
+        <v>7476</v>
+      </c>
+      <c r="FF4">
+        <v>30755</v>
+      </c>
+      <c r="FG4">
+        <v>38483</v>
+      </c>
+      <c r="FH4">
+        <v>70147</v>
+      </c>
+      <c r="FI4">
+        <v>69821</v>
+      </c>
+      <c r="FJ4">
+        <v>152075</v>
+      </c>
+      <c r="FK4">
+        <v>147248</v>
+      </c>
+      <c r="FM4">
+        <v>22927</v>
+      </c>
+      <c r="FN4">
+        <v>33550</v>
+      </c>
+      <c r="FO4" s="3"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>42624</v>
@@ -1644,10 +2602,10 @@
       <c r="AO5">
         <v>52167</v>
       </c>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
       <c r="BL5" s="3"/>
-      <c r="BM5" s="7"/>
+      <c r="BM5" s="5"/>
       <c r="BP5">
         <v>14352</v>
       </c>
@@ -1666,10 +2624,117 @@
       <c r="CU5">
         <v>61036</v>
       </c>
+      <c r="CV5">
+        <v>90607</v>
+      </c>
+      <c r="CX5">
+        <v>20015</v>
+      </c>
+      <c r="CY5">
+        <v>55300</v>
+      </c>
+      <c r="DC5">
+        <v>596059</v>
+      </c>
+      <c r="DD5">
+        <v>433720</v>
+      </c>
+      <c r="DE5">
+        <v>832298</v>
+      </c>
+      <c r="DF5">
+        <v>388802</v>
+      </c>
+      <c r="DO5">
+        <v>30781</v>
+      </c>
+      <c r="DP5">
+        <v>34709</v>
+      </c>
+      <c r="DR5">
+        <v>85478</v>
+      </c>
+      <c r="DS5">
+        <v>1007437</v>
+      </c>
+      <c r="DT5">
+        <v>301901</v>
+      </c>
+      <c r="DU5">
+        <v>17720</v>
+      </c>
+      <c r="EB5">
+        <v>13923</v>
+      </c>
+      <c r="EI5">
+        <v>302569</v>
+      </c>
+      <c r="EJ5">
+        <v>296952</v>
+      </c>
+      <c r="EK5">
+        <v>391230</v>
+      </c>
+      <c r="EL5">
+        <v>211573</v>
+      </c>
+      <c r="EM5">
+        <v>166765</v>
+      </c>
+      <c r="EN5">
+        <v>169453</v>
+      </c>
+      <c r="EO5">
+        <v>41854</v>
+      </c>
+      <c r="EP5">
+        <v>52009</v>
+      </c>
+      <c r="EQ5">
+        <v>260207</v>
+      </c>
+      <c r="ER5">
+        <v>729590</v>
+      </c>
+      <c r="ES5">
+        <v>690116</v>
+      </c>
+      <c r="EX5" s="2"/>
+      <c r="EY5">
+        <v>481490</v>
+      </c>
+      <c r="EZ5">
+        <v>310977</v>
+      </c>
+      <c r="FA5">
+        <v>13698</v>
+      </c>
+      <c r="FB5">
+        <v>37806</v>
+      </c>
+      <c r="FD5">
+        <v>18387</v>
+      </c>
+      <c r="FF5">
+        <v>45072</v>
+      </c>
+      <c r="FH5">
+        <v>100622</v>
+      </c>
+      <c r="FI5">
+        <v>110372</v>
+      </c>
+      <c r="FJ5">
+        <v>248915</v>
+      </c>
+      <c r="FK5">
+        <v>245709</v>
+      </c>
+      <c r="FO5" s="3"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>3396543</v>
@@ -1785,10 +2850,149 @@
       <c r="CU6">
         <v>1452998</v>
       </c>
+      <c r="CV6">
+        <v>10771487</v>
+      </c>
+      <c r="CX6">
+        <v>3108218</v>
+      </c>
+      <c r="CY6">
+        <v>6639207</v>
+      </c>
+      <c r="DC6">
+        <v>50821110</v>
+      </c>
+      <c r="DD6">
+        <v>44619127</v>
+      </c>
+      <c r="DE6">
+        <v>48846153</v>
+      </c>
+      <c r="DF6">
+        <v>30872009</v>
+      </c>
+      <c r="DH6">
+        <v>50065</v>
+      </c>
+      <c r="DM6">
+        <v>17300</v>
+      </c>
+      <c r="DN6">
+        <v>11385</v>
+      </c>
+      <c r="DO6">
+        <v>4283508</v>
+      </c>
+      <c r="DP6">
+        <v>4299715</v>
+      </c>
+      <c r="DQ6">
+        <v>415355</v>
+      </c>
+      <c r="DR6">
+        <v>11896419</v>
+      </c>
+      <c r="DS6">
+        <v>85437158</v>
+      </c>
+      <c r="DT6">
+        <v>26162485</v>
+      </c>
+      <c r="DU6">
+        <v>2767722</v>
+      </c>
+      <c r="DV6">
+        <v>17206</v>
+      </c>
+      <c r="DW6">
+        <v>8951</v>
+      </c>
+      <c r="EB6">
+        <v>89727</v>
+      </c>
+      <c r="EI6">
+        <v>25395017</v>
+      </c>
+      <c r="EJ6">
+        <v>25357315</v>
+      </c>
+      <c r="EK6">
+        <v>30865770</v>
+      </c>
+      <c r="EL6">
+        <v>19943580</v>
+      </c>
+      <c r="EM6">
+        <v>17020022</v>
+      </c>
+      <c r="EN6">
+        <v>16978152</v>
+      </c>
+      <c r="EO6">
+        <v>4041640</v>
+      </c>
+      <c r="EP6">
+        <v>5467833</v>
+      </c>
+      <c r="EQ6">
+        <v>27018095</v>
+      </c>
+      <c r="ER6">
+        <v>45720451</v>
+      </c>
+      <c r="ES6">
+        <v>44549477</v>
+      </c>
+      <c r="EV6">
+        <v>5603</v>
+      </c>
+      <c r="EW6">
+        <v>4145</v>
+      </c>
+      <c r="EX6" s="2">
+        <v>221851</v>
+      </c>
+      <c r="EY6">
+        <v>37291405</v>
+      </c>
+      <c r="EZ6">
+        <v>27444318</v>
+      </c>
+      <c r="FA6">
+        <v>81237</v>
+      </c>
+      <c r="FB6">
+        <v>5033279</v>
+      </c>
+      <c r="FD6">
+        <v>2944291</v>
+      </c>
+      <c r="FF6">
+        <v>6950610</v>
+      </c>
+      <c r="FG6">
+        <v>5692</v>
+      </c>
+      <c r="FH6">
+        <v>12031371</v>
+      </c>
+      <c r="FI6">
+        <v>12030584</v>
+      </c>
+      <c r="FJ6">
+        <v>21431855</v>
+      </c>
+      <c r="FK6">
+        <v>21419897</v>
+      </c>
+      <c r="FN6">
+        <v>7666</v>
+      </c>
+      <c r="FO6" s="3"/>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>47061</v>
@@ -1932,10 +3136,10 @@
         <v>148002</v>
       </c>
       <c r="CQ7">
+        <v>73035</v>
+      </c>
+      <c r="CR7">
         <v>199582</v>
-      </c>
-      <c r="CR7">
-        <v>73035</v>
       </c>
       <c r="CS7">
         <v>85754</v>
@@ -1946,10 +3150,188 @@
       <c r="CU7">
         <v>86117</v>
       </c>
+      <c r="CW7">
+        <v>109271</v>
+      </c>
+      <c r="CZ7">
+        <v>104186</v>
+      </c>
+      <c r="DC7">
+        <v>325436</v>
+      </c>
+      <c r="DD7">
+        <v>120730</v>
+      </c>
+      <c r="DE7">
+        <v>320049</v>
+      </c>
+      <c r="DF7">
+        <v>192900</v>
+      </c>
+      <c r="DG7">
+        <v>265686</v>
+      </c>
+      <c r="DH7">
+        <v>842842</v>
+      </c>
+      <c r="DI7">
+        <v>1442239</v>
+      </c>
+      <c r="DJ7">
+        <v>714166</v>
+      </c>
+      <c r="DK7">
+        <v>893732</v>
+      </c>
+      <c r="DL7">
+        <v>307966</v>
+      </c>
+      <c r="DM7">
+        <v>932196</v>
+      </c>
+      <c r="DN7">
+        <v>956700</v>
+      </c>
+      <c r="DO7">
+        <v>186864</v>
+      </c>
+      <c r="DP7">
+        <v>74878</v>
+      </c>
+      <c r="DR7">
+        <v>132083</v>
+      </c>
+      <c r="DS7">
+        <v>683571</v>
+      </c>
+      <c r="DT7">
+        <v>516638</v>
+      </c>
+      <c r="DU7">
+        <v>43903</v>
+      </c>
+      <c r="DV7">
+        <v>609920</v>
+      </c>
+      <c r="DW7">
+        <v>737779</v>
+      </c>
+      <c r="DX7">
+        <v>468177</v>
+      </c>
+      <c r="DY7">
+        <v>803359</v>
+      </c>
+      <c r="DZ7">
+        <v>223926</v>
+      </c>
+      <c r="EA7">
+        <v>107665</v>
+      </c>
+      <c r="EB7">
+        <v>234502</v>
+      </c>
+      <c r="EC7">
+        <v>66870</v>
+      </c>
+      <c r="ED7">
+        <v>297037</v>
+      </c>
+      <c r="EE7">
+        <v>220288</v>
+      </c>
+      <c r="EF7">
+        <v>29677</v>
+      </c>
+      <c r="EG7">
+        <v>27621</v>
+      </c>
+      <c r="EH7">
+        <v>57606</v>
+      </c>
+      <c r="EI7">
+        <v>449557</v>
+      </c>
+      <c r="EJ7">
+        <v>457264</v>
+      </c>
+      <c r="EK7">
+        <v>487988</v>
+      </c>
+      <c r="EL7">
+        <v>332680</v>
+      </c>
+      <c r="EM7">
+        <v>332894</v>
+      </c>
+      <c r="EN7">
+        <v>330964</v>
+      </c>
+      <c r="EO7">
+        <v>63016</v>
+      </c>
+      <c r="EP7">
+        <v>47481</v>
+      </c>
+      <c r="EQ7">
+        <v>204898</v>
+      </c>
+      <c r="ER7">
+        <v>64289</v>
+      </c>
+      <c r="ES7">
+        <v>69761</v>
+      </c>
+      <c r="ET7">
+        <v>358026</v>
+      </c>
+      <c r="EU7">
+        <v>114513</v>
+      </c>
+      <c r="EV7">
+        <v>1059401</v>
+      </c>
+      <c r="EW7">
+        <v>1032954</v>
+      </c>
+      <c r="EX7" s="2">
+        <v>116586</v>
+      </c>
+      <c r="EY7">
+        <v>65182</v>
+      </c>
+      <c r="EZ7">
+        <v>42718</v>
+      </c>
+      <c r="FA7">
+        <v>285468</v>
+      </c>
+      <c r="FB7">
+        <v>27601</v>
+      </c>
+      <c r="FC7">
+        <v>43264</v>
+      </c>
+      <c r="FG7">
+        <v>6653</v>
+      </c>
+      <c r="FH7">
+        <v>74434</v>
+      </c>
+      <c r="FI7">
+        <v>73138</v>
+      </c>
+      <c r="FJ7">
+        <v>51727</v>
+      </c>
+      <c r="FK7">
+        <v>62250</v>
+      </c>
+      <c r="FO7" s="5"/>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8">
@@ -1971,9 +3353,6 @@
       <c r="AI8">
         <v>32903</v>
       </c>
-      <c r="AK8" t="s">
-        <v>18</v>
-      </c>
       <c r="AL8">
         <v>233566</v>
       </c>
@@ -1986,9 +3365,6 @@
       <c r="AO8">
         <v>120951</v>
       </c>
-      <c r="AS8" t="s">
-        <v>18</v>
-      </c>
       <c r="AX8">
         <v>67363</v>
       </c>
@@ -2115,7 +3491,7 @@
       <c r="CP8">
         <v>124209</v>
       </c>
-      <c r="CQ8">
+      <c r="CR8">
         <v>19804</v>
       </c>
       <c r="CT8">
@@ -2124,10 +3500,211 @@
       <c r="CU8">
         <v>72730</v>
       </c>
+      <c r="CV8">
+        <v>129205</v>
+      </c>
+      <c r="CW8">
+        <v>73148</v>
+      </c>
+      <c r="CY8">
+        <v>190118</v>
+      </c>
+      <c r="DA8">
+        <v>166008</v>
+      </c>
+      <c r="DB8">
+        <v>411390</v>
+      </c>
+      <c r="DC8">
+        <v>617781</v>
+      </c>
+      <c r="DD8">
+        <v>270099</v>
+      </c>
+      <c r="DE8">
+        <v>551065</v>
+      </c>
+      <c r="DF8">
+        <v>161186</v>
+      </c>
+      <c r="DG8">
+        <v>169625</v>
+      </c>
+      <c r="DH8">
+        <v>440059</v>
+      </c>
+      <c r="DI8">
+        <v>895918</v>
+      </c>
+      <c r="DJ8">
+        <v>522237</v>
+      </c>
+      <c r="DK8">
+        <v>817572</v>
+      </c>
+      <c r="DL8">
+        <v>78331</v>
+      </c>
+      <c r="DM8">
+        <v>525062</v>
+      </c>
+      <c r="DN8">
+        <v>535798</v>
+      </c>
+      <c r="DO8">
+        <v>25844</v>
+      </c>
+      <c r="DR8">
+        <v>78464</v>
+      </c>
+      <c r="DS8">
+        <v>780264</v>
+      </c>
+      <c r="DT8">
+        <v>601183</v>
+      </c>
+      <c r="DU8">
+        <v>31448</v>
+      </c>
+      <c r="DV8">
+        <v>304758</v>
+      </c>
+      <c r="DW8">
+        <v>403929</v>
+      </c>
+      <c r="DX8">
+        <v>143693</v>
+      </c>
+      <c r="DY8">
+        <v>308485</v>
+      </c>
+      <c r="DZ8">
+        <v>177887</v>
+      </c>
+      <c r="EA8">
+        <v>97978</v>
+      </c>
+      <c r="EB8">
+        <v>189166</v>
+      </c>
+      <c r="ED8">
+        <v>259793</v>
+      </c>
+      <c r="EE8">
+        <v>115818</v>
+      </c>
+      <c r="EF8">
+        <v>30550</v>
+      </c>
+      <c r="EG8">
+        <v>702985</v>
+      </c>
+      <c r="EH8">
+        <v>1144765</v>
+      </c>
+      <c r="EI8">
+        <v>277768</v>
+      </c>
+      <c r="EJ8">
+        <v>62762</v>
+      </c>
+      <c r="EK8">
+        <v>284677</v>
+      </c>
+      <c r="EL8">
+        <v>82845</v>
+      </c>
+      <c r="EM8">
+        <v>153800</v>
+      </c>
+      <c r="EN8">
+        <v>32412</v>
+      </c>
+      <c r="EO8">
+        <v>22930</v>
+      </c>
+      <c r="EP8">
+        <v>24614</v>
+      </c>
+      <c r="EQ8">
+        <v>204730</v>
+      </c>
+      <c r="ER8">
+        <v>857249</v>
+      </c>
+      <c r="ES8">
+        <v>937834</v>
+      </c>
+      <c r="ET8">
+        <v>130184</v>
+      </c>
+      <c r="EU8">
+        <v>41748</v>
+      </c>
+      <c r="EV8">
+        <v>562856</v>
+      </c>
+      <c r="EW8">
+        <v>491908</v>
+      </c>
+      <c r="EX8" s="2">
+        <v>59753</v>
+      </c>
+      <c r="EY8">
+        <v>1805406</v>
+      </c>
+      <c r="EZ8">
+        <v>530064</v>
+      </c>
+      <c r="FA8">
+        <v>73045</v>
+      </c>
+      <c r="FB8">
+        <v>209553</v>
+      </c>
+      <c r="FC8">
+        <v>1232742</v>
+      </c>
+      <c r="FD8">
+        <v>143714</v>
+      </c>
+      <c r="FE8">
+        <v>6915</v>
+      </c>
+      <c r="FF8">
+        <v>56621</v>
+      </c>
+      <c r="FG8">
+        <v>538089</v>
+      </c>
+      <c r="FH8">
+        <v>588921</v>
+      </c>
+      <c r="FI8">
+        <v>425139</v>
+      </c>
+      <c r="FJ8">
+        <v>475370</v>
+      </c>
+      <c r="FK8">
+        <v>356587</v>
+      </c>
+      <c r="FL8">
+        <v>31442</v>
+      </c>
+      <c r="FM8">
+        <v>207786</v>
+      </c>
+      <c r="FN8">
+        <v>179766</v>
+      </c>
+      <c r="FO8" s="3">
+        <v>32256</v>
+      </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
+    <row r="9" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9">
@@ -2140,9 +3717,6 @@
         <v>50253</v>
       </c>
       <c r="AC9" s="3"/>
-      <c r="AK9" t="s">
-        <v>19</v>
-      </c>
       <c r="AL9">
         <v>54315</v>
       </c>
@@ -2152,9 +3726,6 @@
       <c r="AP9">
         <v>25639</v>
       </c>
-      <c r="AS9" t="s">
-        <v>19</v>
-      </c>
       <c r="AY9">
         <v>172683</v>
       </c>
@@ -2260,7 +3831,7 @@
       <c r="CO9">
         <v>45086</v>
       </c>
-      <c r="CR9">
+      <c r="CQ9">
         <v>84039</v>
       </c>
       <c r="CT9">
@@ -2269,10 +3840,159 @@
       <c r="CU9">
         <v>27132</v>
       </c>
+      <c r="CW9">
+        <v>39913</v>
+      </c>
+      <c r="CX9">
+        <v>11802</v>
+      </c>
+      <c r="DC9">
+        <v>115603</v>
+      </c>
+      <c r="DD9">
+        <v>137667</v>
+      </c>
+      <c r="DE9">
+        <v>222065</v>
+      </c>
+      <c r="DF9">
+        <v>19904</v>
+      </c>
+      <c r="DG9">
+        <v>55267</v>
+      </c>
+      <c r="DH9">
+        <v>35127</v>
+      </c>
+      <c r="DI9">
+        <v>140540</v>
+      </c>
+      <c r="DJ9">
+        <v>90486</v>
+      </c>
+      <c r="DK9">
+        <v>202905</v>
+      </c>
+      <c r="DM9">
+        <v>43319</v>
+      </c>
+      <c r="DN9">
+        <v>28731</v>
+      </c>
+      <c r="DQ9">
+        <v>30962</v>
+      </c>
+      <c r="DR9">
+        <v>19022</v>
+      </c>
+      <c r="DS9">
+        <v>91927</v>
+      </c>
+      <c r="DT9">
+        <v>69299</v>
+      </c>
+      <c r="DV9">
+        <v>17140</v>
+      </c>
+      <c r="DW9">
+        <v>20868</v>
+      </c>
+      <c r="DY9">
+        <v>41653</v>
+      </c>
+      <c r="EA9">
+        <v>14872</v>
+      </c>
+      <c r="EB9">
+        <v>19136</v>
+      </c>
+      <c r="ED9">
+        <v>52345</v>
+      </c>
+      <c r="EE9">
+        <v>52282</v>
+      </c>
+      <c r="EG9">
+        <v>112824</v>
+      </c>
+      <c r="EH9">
+        <v>255407</v>
+      </c>
+      <c r="EI9">
+        <v>16456</v>
+      </c>
+      <c r="EJ9">
+        <v>13070</v>
+      </c>
+      <c r="EK9">
+        <v>15144</v>
+      </c>
+      <c r="EL9">
+        <v>25994</v>
+      </c>
+      <c r="EM9">
+        <v>20732</v>
+      </c>
+      <c r="EN9">
+        <v>21502</v>
+      </c>
+      <c r="EQ9">
+        <v>91536</v>
+      </c>
+      <c r="ER9">
+        <v>231030</v>
+      </c>
+      <c r="ES9">
+        <v>175005</v>
+      </c>
+      <c r="ET9">
+        <v>31221</v>
+      </c>
+      <c r="EV9">
+        <v>36670</v>
+      </c>
+      <c r="EW9">
+        <v>28441</v>
+      </c>
+      <c r="EX9" s="2"/>
+      <c r="EY9">
+        <v>207363</v>
+      </c>
+      <c r="EZ9">
+        <v>88779</v>
+      </c>
+      <c r="FB9">
+        <v>27187</v>
+      </c>
+      <c r="FC9">
+        <v>179541</v>
+      </c>
+      <c r="FG9">
+        <v>32106</v>
+      </c>
+      <c r="FH9">
+        <v>142289</v>
+      </c>
+      <c r="FI9">
+        <v>183990</v>
+      </c>
+      <c r="FJ9">
+        <v>145042</v>
+      </c>
+      <c r="FK9">
+        <v>139478</v>
+      </c>
+      <c r="FM9">
+        <v>6518</v>
+      </c>
+      <c r="FN9">
+        <v>11608</v>
+      </c>
+      <c r="FO9" s="3"/>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
+    <row r="10" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10">
@@ -2282,14 +4002,8 @@
         <v>40396</v>
       </c>
       <c r="AC10" s="3"/>
-      <c r="AK10" t="s">
-        <v>20</v>
-      </c>
       <c r="AL10">
         <v>45772</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>20</v>
       </c>
       <c r="AY10">
         <v>125984</v>
@@ -2376,10 +4090,129 @@
       <c r="CK10">
         <v>33623</v>
       </c>
+      <c r="CW10">
+        <v>14107</v>
+      </c>
+      <c r="CX10">
+        <v>3352</v>
+      </c>
+      <c r="DC10">
+        <v>54461</v>
+      </c>
+      <c r="DD10">
+        <v>40101</v>
+      </c>
+      <c r="DE10">
+        <v>108049</v>
+      </c>
+      <c r="DF10">
+        <v>8502</v>
+      </c>
+      <c r="DG10">
+        <v>28907</v>
+      </c>
+      <c r="DH10">
+        <v>24544</v>
+      </c>
+      <c r="DI10">
+        <v>91551</v>
+      </c>
+      <c r="DJ10">
+        <v>31837</v>
+      </c>
+      <c r="DK10">
+        <v>102563</v>
+      </c>
+      <c r="DM10">
+        <v>17035</v>
+      </c>
+      <c r="DN10">
+        <v>26236</v>
+      </c>
+      <c r="DS10">
+        <v>80664</v>
+      </c>
+      <c r="DT10">
+        <v>36736</v>
+      </c>
+      <c r="DV10">
+        <v>24201</v>
+      </c>
+      <c r="DW10">
+        <v>13839</v>
+      </c>
+      <c r="DY10">
+        <v>8909</v>
+      </c>
+      <c r="EB10">
+        <v>11414</v>
+      </c>
+      <c r="ED10">
+        <v>15817</v>
+      </c>
+      <c r="EE10">
+        <v>34152</v>
+      </c>
+      <c r="EG10">
+        <v>32974</v>
+      </c>
+      <c r="EH10">
+        <v>92425</v>
+      </c>
+      <c r="EI10">
+        <v>29761</v>
+      </c>
+      <c r="EQ10">
+        <v>21506</v>
+      </c>
+      <c r="ER10">
+        <v>75324</v>
+      </c>
+      <c r="ES10">
+        <v>99723</v>
+      </c>
+      <c r="ET10">
+        <v>29204</v>
+      </c>
+      <c r="EV10">
+        <v>42187</v>
+      </c>
+      <c r="EW10">
+        <v>21826</v>
+      </c>
+      <c r="EX10" s="2"/>
+      <c r="EY10">
+        <v>133034</v>
+      </c>
+      <c r="EZ10">
+        <v>43416</v>
+      </c>
+      <c r="FB10">
+        <v>11601</v>
+      </c>
+      <c r="FC10">
+        <v>145473</v>
+      </c>
+      <c r="FG10">
+        <v>25773</v>
+      </c>
+      <c r="FH10">
+        <v>70922</v>
+      </c>
+      <c r="FI10">
+        <v>88705</v>
+      </c>
+      <c r="FJ10">
+        <v>69103</v>
+      </c>
+      <c r="FK10">
+        <v>54988</v>
+      </c>
+      <c r="FO10" s="3"/>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
+    <row r="11" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
       </c>
       <c r="H11">
         <v>11778</v>
@@ -2497,10 +4330,153 @@
       <c r="CU11">
         <v>235015</v>
       </c>
+      <c r="CX11">
+        <v>1248</v>
+      </c>
+      <c r="DE11">
+        <v>19144</v>
+      </c>
+      <c r="DH11">
+        <v>24644</v>
+      </c>
+      <c r="DI11">
+        <v>44703</v>
+      </c>
+      <c r="DJ11">
+        <v>28706</v>
+      </c>
+      <c r="DK11">
+        <v>24616</v>
+      </c>
+      <c r="DM11">
+        <v>13215</v>
+      </c>
+      <c r="DN11">
+        <v>35182</v>
+      </c>
+      <c r="DR11">
+        <v>16422</v>
+      </c>
+      <c r="DS11">
+        <v>53629</v>
+      </c>
+      <c r="DT11">
+        <v>15603</v>
+      </c>
+      <c r="DV11">
+        <v>15509</v>
+      </c>
+      <c r="DW11">
+        <v>52022</v>
+      </c>
+      <c r="DY11">
+        <v>17391</v>
+      </c>
+      <c r="EA11">
+        <v>4939</v>
+      </c>
+      <c r="EB11">
+        <v>18450</v>
+      </c>
+      <c r="ED11">
+        <v>42813</v>
+      </c>
+      <c r="EE11">
+        <v>19945</v>
+      </c>
+      <c r="EG11">
+        <v>13883</v>
+      </c>
+      <c r="EH11">
+        <v>29697</v>
+      </c>
+      <c r="EI11">
+        <v>12318</v>
+      </c>
+      <c r="EJ11">
+        <v>8208</v>
+      </c>
+      <c r="EK11">
+        <v>36858</v>
+      </c>
+      <c r="EL11">
+        <v>117937</v>
+      </c>
+      <c r="EM11">
+        <v>7027</v>
+      </c>
+      <c r="EN11">
+        <v>5371</v>
+      </c>
+      <c r="EP11">
+        <v>13403</v>
+      </c>
+      <c r="EQ11">
+        <v>10785</v>
+      </c>
+      <c r="ER11">
+        <v>22730</v>
+      </c>
+      <c r="ES11">
+        <v>33822</v>
+      </c>
+      <c r="ET11">
+        <v>7695</v>
+      </c>
+      <c r="EU11">
+        <v>8093</v>
+      </c>
+      <c r="EV11">
+        <v>29766</v>
+      </c>
+      <c r="EW11">
+        <v>21018</v>
+      </c>
+      <c r="EX11" s="2"/>
+      <c r="EY11">
+        <v>35607</v>
+      </c>
+      <c r="EZ11">
+        <v>19035</v>
+      </c>
+      <c r="FA11">
+        <v>17037</v>
+      </c>
+      <c r="FB11">
+        <v>1684</v>
+      </c>
+      <c r="FC11">
+        <v>43380</v>
+      </c>
+      <c r="FE11">
+        <v>2554</v>
+      </c>
+      <c r="FG11">
+        <v>19373</v>
+      </c>
+      <c r="FH11">
+        <v>5490</v>
+      </c>
+      <c r="FI11">
+        <v>3764</v>
+      </c>
+      <c r="FJ11">
+        <v>8186</v>
+      </c>
+      <c r="FK11">
+        <v>7077</v>
+      </c>
+      <c r="FM11">
+        <v>16312</v>
+      </c>
+      <c r="FN11">
+        <v>21178</v>
+      </c>
+      <c r="FO11" s="3"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
+    <row r="12" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>109</v>
       </c>
       <c r="H12">
         <v>36936</v>
@@ -2621,10 +4597,159 @@
       <c r="CU12">
         <v>1431440</v>
       </c>
+      <c r="CW12">
+        <v>20220</v>
+      </c>
+      <c r="CX12">
+        <v>6158</v>
+      </c>
+      <c r="DE12">
+        <v>32875</v>
+      </c>
+      <c r="DH12">
+        <v>35338</v>
+      </c>
+      <c r="DI12">
+        <v>44456</v>
+      </c>
+      <c r="DJ12">
+        <v>32658</v>
+      </c>
+      <c r="DK12">
+        <v>23020</v>
+      </c>
+      <c r="DL12">
+        <v>12617</v>
+      </c>
+      <c r="DM12">
+        <v>24381</v>
+      </c>
+      <c r="DN12">
+        <v>53246</v>
+      </c>
+      <c r="DP12">
+        <v>9308</v>
+      </c>
+      <c r="DR12">
+        <v>20939</v>
+      </c>
+      <c r="DS12">
+        <v>68498</v>
+      </c>
+      <c r="DT12">
+        <v>29038</v>
+      </c>
+      <c r="DV12">
+        <v>49142</v>
+      </c>
+      <c r="DW12">
+        <v>39949</v>
+      </c>
+      <c r="DY12">
+        <v>8461</v>
+      </c>
+      <c r="EA12">
+        <v>5132</v>
+      </c>
+      <c r="EB12">
+        <v>11083</v>
+      </c>
+      <c r="ED12">
+        <v>25806</v>
+      </c>
+      <c r="EE12">
+        <v>27200</v>
+      </c>
+      <c r="EG12">
+        <v>11595</v>
+      </c>
+      <c r="EH12">
+        <v>21863</v>
+      </c>
+      <c r="EI12">
+        <v>18422</v>
+      </c>
+      <c r="EJ12">
+        <v>26245</v>
+      </c>
+      <c r="EK12">
+        <v>40275</v>
+      </c>
+      <c r="EL12">
+        <v>82610</v>
+      </c>
+      <c r="EM12">
+        <v>4173</v>
+      </c>
+      <c r="EN12">
+        <v>13596</v>
+      </c>
+      <c r="EP12">
+        <v>11014</v>
+      </c>
+      <c r="EQ12">
+        <v>30881</v>
+      </c>
+      <c r="ER12">
+        <v>14100</v>
+      </c>
+      <c r="ES12">
+        <v>31116</v>
+      </c>
+      <c r="ET12">
+        <v>8404</v>
+      </c>
+      <c r="EU12">
+        <v>6964</v>
+      </c>
+      <c r="EV12">
+        <v>25239</v>
+      </c>
+      <c r="EW12">
+        <v>26386</v>
+      </c>
+      <c r="EX12" s="2"/>
+      <c r="EY12">
+        <v>41128</v>
+      </c>
+      <c r="EZ12">
+        <v>43552</v>
+      </c>
+      <c r="FA12">
+        <v>21403</v>
+      </c>
+      <c r="FB12">
+        <v>1397</v>
+      </c>
+      <c r="FC12">
+        <v>56962</v>
+      </c>
+      <c r="FG12">
+        <v>27063</v>
+      </c>
+      <c r="FH12">
+        <v>8162</v>
+      </c>
+      <c r="FI12">
+        <v>13289</v>
+      </c>
+      <c r="FJ12">
+        <v>9194</v>
+      </c>
+      <c r="FK12">
+        <v>9194</v>
+      </c>
+      <c r="FM12">
+        <v>22143</v>
+      </c>
+      <c r="FN12">
+        <v>25486</v>
+      </c>
+      <c r="FO12" s="3"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13">
@@ -2652,9 +4777,9 @@
         <v>198765</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>1687312</v>
@@ -2924,10 +5049,10 @@
         <v>24642825</v>
       </c>
       <c r="CQ14">
+        <v>7843009</v>
+      </c>
+      <c r="CR14">
         <v>2345305</v>
-      </c>
-      <c r="CR14">
-        <v>7843009</v>
       </c>
       <c r="CS14">
         <v>4288702</v>
@@ -2938,10 +5063,226 @@
       <c r="CU14">
         <v>3693258</v>
       </c>
+      <c r="CV14">
+        <v>1596221</v>
+      </c>
+      <c r="CW14">
+        <v>13600807</v>
+      </c>
+      <c r="CX14">
+        <v>1782640</v>
+      </c>
+      <c r="CY14">
+        <v>1023600</v>
+      </c>
+      <c r="CZ14">
+        <v>10746268</v>
+      </c>
+      <c r="DA14">
+        <v>2738652</v>
+      </c>
+      <c r="DB14">
+        <v>2498369</v>
+      </c>
+      <c r="DC14">
+        <v>23928648</v>
+      </c>
+      <c r="DD14">
+        <v>24439399</v>
+      </c>
+      <c r="DE14">
+        <v>41502290</v>
+      </c>
+      <c r="DF14">
+        <v>7671911</v>
+      </c>
+      <c r="DG14">
+        <v>31360381</v>
+      </c>
+      <c r="DH14">
+        <v>37656452</v>
+      </c>
+      <c r="DI14">
+        <v>55766501</v>
+      </c>
+      <c r="DJ14">
+        <v>40231895</v>
+      </c>
+      <c r="DK14">
+        <v>27741753</v>
+      </c>
+      <c r="DL14">
+        <v>17513210</v>
+      </c>
+      <c r="DM14">
+        <v>55712882</v>
+      </c>
+      <c r="DN14">
+        <v>55710916</v>
+      </c>
+      <c r="DO14">
+        <v>10069978</v>
+      </c>
+      <c r="DP14">
+        <v>5277523</v>
+      </c>
+      <c r="DQ14">
+        <v>560391</v>
+      </c>
+      <c r="DR14">
+        <v>13422547</v>
+      </c>
+      <c r="DS14">
+        <v>66282935</v>
+      </c>
+      <c r="DT14">
+        <v>47655617</v>
+      </c>
+      <c r="DU14">
+        <v>6005138</v>
+      </c>
+      <c r="DV14">
+        <v>42128482</v>
+      </c>
+      <c r="DW14">
+        <v>42524216</v>
+      </c>
+      <c r="DX14">
+        <v>25972938</v>
+      </c>
+      <c r="DY14">
+        <v>38674181</v>
+      </c>
+      <c r="DZ14">
+        <v>21834704</v>
+      </c>
+      <c r="EA14">
+        <v>15658647</v>
+      </c>
+      <c r="EB14">
+        <v>43890453</v>
+      </c>
+      <c r="EC14">
+        <v>6288679</v>
+      </c>
+      <c r="ED14">
+        <v>46964873</v>
+      </c>
+      <c r="EE14">
+        <v>26946793</v>
+      </c>
+      <c r="EF14">
+        <v>7060186</v>
+      </c>
+      <c r="EG14">
+        <v>2138599</v>
+      </c>
+      <c r="EH14">
+        <v>6172000</v>
+      </c>
+      <c r="EI14">
+        <v>47792238</v>
+      </c>
+      <c r="EJ14">
+        <v>46109335</v>
+      </c>
+      <c r="EK14">
+        <v>43606396</v>
+      </c>
+      <c r="EL14">
+        <v>34348530</v>
+      </c>
+      <c r="EM14">
+        <v>24231649</v>
+      </c>
+      <c r="EN14">
+        <v>24902029</v>
+      </c>
+      <c r="EO14">
+        <v>6895450</v>
+      </c>
+      <c r="EP14">
+        <v>6110573</v>
+      </c>
+      <c r="EQ14">
+        <v>29500786</v>
+      </c>
+      <c r="ER14">
+        <v>7837285</v>
+      </c>
+      <c r="ES14">
+        <v>5847430</v>
+      </c>
+      <c r="ET14">
+        <v>36166401</v>
+      </c>
+      <c r="EU14">
+        <v>10452306</v>
+      </c>
+      <c r="EV14">
+        <v>57022469</v>
+      </c>
+      <c r="EW14">
+        <v>45825666</v>
+      </c>
+      <c r="EX14" s="2">
+        <v>3954368</v>
+      </c>
+      <c r="EY14">
+        <v>9426604</v>
+      </c>
+      <c r="EZ14">
+        <v>4855370</v>
+      </c>
+      <c r="FA14">
+        <v>24417889</v>
+      </c>
+      <c r="FB14">
+        <v>1667976</v>
+      </c>
+      <c r="FC14">
+        <v>5370417</v>
+      </c>
+      <c r="FD14">
+        <v>451631</v>
+      </c>
+      <c r="FE14">
+        <v>207593</v>
+      </c>
+      <c r="FF14">
+        <v>94899</v>
+      </c>
+      <c r="FG14">
+        <v>1325342</v>
+      </c>
+      <c r="FH14">
+        <v>10123736</v>
+      </c>
+      <c r="FI14">
+        <v>9252500</v>
+      </c>
+      <c r="FJ14">
+        <v>7989481</v>
+      </c>
+      <c r="FK14">
+        <v>7984484</v>
+      </c>
+      <c r="FL14">
+        <v>149293</v>
+      </c>
+      <c r="FM14">
+        <v>1062362</v>
+      </c>
+      <c r="FN14">
+        <v>1288716</v>
+      </c>
+      <c r="FO14" s="3">
+        <v>150192</v>
+      </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>121417</v>
@@ -3187,10 +5528,10 @@
         <v>12878316</v>
       </c>
       <c r="CQ15">
+        <v>1130209</v>
+      </c>
+      <c r="CR15">
         <v>300016</v>
-      </c>
-      <c r="CR15">
-        <v>1130209</v>
       </c>
       <c r="CS15">
         <v>743948</v>
@@ -3201,10 +5542,226 @@
       <c r="CU15">
         <v>2783976</v>
       </c>
+      <c r="CV15">
+        <v>33117122</v>
+      </c>
+      <c r="CW15">
+        <v>6526744</v>
+      </c>
+      <c r="CX15">
+        <v>24710667</v>
+      </c>
+      <c r="CY15">
+        <v>19573141</v>
+      </c>
+      <c r="CZ15">
+        <v>6866622</v>
+      </c>
+      <c r="DA15">
+        <v>29593612</v>
+      </c>
+      <c r="DB15">
+        <v>17184177</v>
+      </c>
+      <c r="DC15">
+        <v>27576909</v>
+      </c>
+      <c r="DD15">
+        <v>25367282</v>
+      </c>
+      <c r="DE15">
+        <v>26855417</v>
+      </c>
+      <c r="DF15">
+        <v>3674598</v>
+      </c>
+      <c r="DG15">
+        <v>20149420</v>
+      </c>
+      <c r="DH15">
+        <v>21465667</v>
+      </c>
+      <c r="DI15">
+        <v>38356050</v>
+      </c>
+      <c r="DJ15">
+        <v>25063235</v>
+      </c>
+      <c r="DK15">
+        <v>24187922</v>
+      </c>
+      <c r="DL15">
+        <v>6152511</v>
+      </c>
+      <c r="DM15">
+        <v>28631575</v>
+      </c>
+      <c r="DN15">
+        <v>31190588</v>
+      </c>
+      <c r="DO15">
+        <v>3060092</v>
+      </c>
+      <c r="DP15">
+        <v>1395821</v>
+      </c>
+      <c r="DQ15">
+        <v>115332</v>
+      </c>
+      <c r="DR15">
+        <v>10664544</v>
+      </c>
+      <c r="DS15">
+        <v>60443747</v>
+      </c>
+      <c r="DT15">
+        <v>36591814</v>
+      </c>
+      <c r="DU15">
+        <v>4103518</v>
+      </c>
+      <c r="DV15">
+        <v>17479541</v>
+      </c>
+      <c r="DW15">
+        <v>20403636</v>
+      </c>
+      <c r="DX15">
+        <v>10403511</v>
+      </c>
+      <c r="DY15">
+        <v>16804698</v>
+      </c>
+      <c r="DZ15">
+        <v>16900570</v>
+      </c>
+      <c r="EA15">
+        <v>16228432</v>
+      </c>
+      <c r="EB15">
+        <v>29083488</v>
+      </c>
+      <c r="EC15">
+        <v>2145852</v>
+      </c>
+      <c r="ED15">
+        <v>30442096</v>
+      </c>
+      <c r="EE15">
+        <v>15659585</v>
+      </c>
+      <c r="EF15">
+        <v>3381655</v>
+      </c>
+      <c r="EG15">
+        <v>22689139</v>
+      </c>
+      <c r="EH15">
+        <v>71717002</v>
+      </c>
+      <c r="EI15">
+        <v>19786248</v>
+      </c>
+      <c r="EJ15">
+        <v>26735877</v>
+      </c>
+      <c r="EK15">
+        <v>21723056</v>
+      </c>
+      <c r="EL15">
+        <v>16322337</v>
+      </c>
+      <c r="EM15">
+        <v>9478935</v>
+      </c>
+      <c r="EN15">
+        <v>9116454</v>
+      </c>
+      <c r="EO15">
+        <v>2781892</v>
+      </c>
+      <c r="EP15">
+        <v>2470596</v>
+      </c>
+      <c r="EQ15">
+        <v>35038773</v>
+      </c>
+      <c r="ER15">
+        <v>50154279</v>
+      </c>
+      <c r="ES15">
+        <v>54436468</v>
+      </c>
+      <c r="ET15">
+        <v>16759639</v>
+      </c>
+      <c r="EU15">
+        <v>3976515</v>
+      </c>
+      <c r="EV15">
+        <v>27280816</v>
+      </c>
+      <c r="EW15">
+        <v>27024933</v>
+      </c>
+      <c r="EX15" s="2">
+        <v>1285034</v>
+      </c>
+      <c r="EY15">
+        <v>90189278</v>
+      </c>
+      <c r="EZ15">
+        <v>39795799</v>
+      </c>
+      <c r="FA15">
+        <v>11794912</v>
+      </c>
+      <c r="FB15">
+        <v>11513753</v>
+      </c>
+      <c r="FC15">
+        <v>56756134</v>
+      </c>
+      <c r="FD15">
+        <v>5266931</v>
+      </c>
+      <c r="FE15">
+        <v>3443047</v>
+      </c>
+      <c r="FF15">
+        <v>1099894</v>
+      </c>
+      <c r="FG15">
+        <v>30946918</v>
+      </c>
+      <c r="FH15">
+        <v>28213588</v>
+      </c>
+      <c r="FI15">
+        <v>30904636</v>
+      </c>
+      <c r="FJ15">
+        <v>33718603</v>
+      </c>
+      <c r="FK15">
+        <v>34818342</v>
+      </c>
+      <c r="FL15">
+        <v>3852207</v>
+      </c>
+      <c r="FM15">
+        <v>20440692</v>
+      </c>
+      <c r="FN15">
+        <v>20384601</v>
+      </c>
+      <c r="FO15" s="3">
+        <v>3870555</v>
+      </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>392505</v>
@@ -3462,10 +6019,10 @@
         <v>6566101</v>
       </c>
       <c r="CQ16">
+        <v>1498625</v>
+      </c>
+      <c r="CR16">
         <v>531441</v>
-      </c>
-      <c r="CR16">
-        <v>1498625</v>
       </c>
       <c r="CS16">
         <v>1116065</v>
@@ -3476,10 +6033,226 @@
       <c r="CU16">
         <v>1027406</v>
       </c>
+      <c r="CV16">
+        <v>1450829</v>
+      </c>
+      <c r="CW16">
+        <v>3808847</v>
+      </c>
+      <c r="CX16">
+        <v>1253266</v>
+      </c>
+      <c r="CY16">
+        <v>583948</v>
+      </c>
+      <c r="CZ16">
+        <v>3193490</v>
+      </c>
+      <c r="DA16">
+        <v>1610246</v>
+      </c>
+      <c r="DB16">
+        <v>1096622</v>
+      </c>
+      <c r="DC16">
+        <v>8138102</v>
+      </c>
+      <c r="DD16">
+        <v>6776614</v>
+      </c>
+      <c r="DE16">
+        <v>12265522</v>
+      </c>
+      <c r="DF16">
+        <v>1936245</v>
+      </c>
+      <c r="DG16">
+        <v>7989309</v>
+      </c>
+      <c r="DH16">
+        <v>12487838</v>
+      </c>
+      <c r="DI16">
+        <v>20343555</v>
+      </c>
+      <c r="DJ16">
+        <v>11801824</v>
+      </c>
+      <c r="DK16">
+        <v>8875713</v>
+      </c>
+      <c r="DL16">
+        <v>4771777</v>
+      </c>
+      <c r="DM16">
+        <v>19576974</v>
+      </c>
+      <c r="DN16">
+        <v>19451666</v>
+      </c>
+      <c r="DO16">
+        <v>2444270</v>
+      </c>
+      <c r="DP16">
+        <v>1251014</v>
+      </c>
+      <c r="DQ16">
+        <v>107452</v>
+      </c>
+      <c r="DR16">
+        <v>4221988</v>
+      </c>
+      <c r="DS16">
+        <v>21990017</v>
+      </c>
+      <c r="DT16">
+        <v>15397748</v>
+      </c>
+      <c r="DU16">
+        <v>1503691</v>
+      </c>
+      <c r="DV16">
+        <v>14542265</v>
+      </c>
+      <c r="DW16">
+        <v>14160767</v>
+      </c>
+      <c r="DX16">
+        <v>7356758</v>
+      </c>
+      <c r="DY16">
+        <v>12664891</v>
+      </c>
+      <c r="DZ16">
+        <v>7051840</v>
+      </c>
+      <c r="EA16">
+        <v>4767314</v>
+      </c>
+      <c r="EB16">
+        <v>13829886</v>
+      </c>
+      <c r="EC16">
+        <v>1587001</v>
+      </c>
+      <c r="ED16">
+        <v>14643320</v>
+      </c>
+      <c r="EE16">
+        <v>8009644</v>
+      </c>
+      <c r="EF16">
+        <v>1547606</v>
+      </c>
+      <c r="EG16">
+        <v>1181918</v>
+      </c>
+      <c r="EH16">
+        <v>4302662</v>
+      </c>
+      <c r="EI16">
+        <v>15296672</v>
+      </c>
+      <c r="EJ16">
+        <v>15337475</v>
+      </c>
+      <c r="EK16">
+        <v>14427521</v>
+      </c>
+      <c r="EL16">
+        <v>9837925</v>
+      </c>
+      <c r="EM16">
+        <v>6316060</v>
+      </c>
+      <c r="EN16">
+        <v>6706934</v>
+      </c>
+      <c r="EO16">
+        <v>1462470</v>
+      </c>
+      <c r="EP16">
+        <v>1390511</v>
+      </c>
+      <c r="EQ16">
+        <v>10156243</v>
+      </c>
+      <c r="ER16">
+        <v>3503678</v>
+      </c>
+      <c r="ES16">
+        <v>4278163</v>
+      </c>
+      <c r="ET16">
+        <v>9424774</v>
+      </c>
+      <c r="EU16">
+        <v>2554598</v>
+      </c>
+      <c r="EV16">
+        <v>21860280</v>
+      </c>
+      <c r="EW16">
+        <v>16333751</v>
+      </c>
+      <c r="EX16" s="2">
+        <v>1084880</v>
+      </c>
+      <c r="EY16">
+        <v>6995559</v>
+      </c>
+      <c r="EZ16">
+        <v>3008395</v>
+      </c>
+      <c r="FA16">
+        <v>6945111</v>
+      </c>
+      <c r="FB16">
+        <v>720322</v>
+      </c>
+      <c r="FC16">
+        <v>3037257</v>
+      </c>
+      <c r="FD16">
+        <v>280443</v>
+      </c>
+      <c r="FE16">
+        <v>273326</v>
+      </c>
+      <c r="FF16">
+        <v>50185</v>
+      </c>
+      <c r="FG16">
+        <v>1234137</v>
+      </c>
+      <c r="FH16">
+        <v>2904342</v>
+      </c>
+      <c r="FI16">
+        <v>3065218</v>
+      </c>
+      <c r="FJ16">
+        <v>2884475</v>
+      </c>
+      <c r="FK16">
+        <v>2577035</v>
+      </c>
+      <c r="FL16">
+        <v>126393</v>
+      </c>
+      <c r="FM16">
+        <v>1071922</v>
+      </c>
+      <c r="FN16">
+        <v>1083181</v>
+      </c>
+      <c r="FO16" s="3">
+        <v>110731</v>
+      </c>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>40167</v>
@@ -3722,10 +6495,10 @@
         <v>6367783</v>
       </c>
       <c r="CQ17">
+        <v>320402</v>
+      </c>
+      <c r="CR17">
         <v>109111</v>
-      </c>
-      <c r="CR17">
-        <v>320402</v>
       </c>
       <c r="CS17">
         <v>288549</v>
@@ -3736,10 +6509,226 @@
       <c r="CU17">
         <v>1274984</v>
       </c>
+      <c r="CV17">
+        <v>19226242</v>
+      </c>
+      <c r="CW17">
+        <v>3420259</v>
+      </c>
+      <c r="CX17">
+        <v>16604255</v>
+      </c>
+      <c r="CY17">
+        <v>12134016</v>
+      </c>
+      <c r="CZ17">
+        <v>3580608</v>
+      </c>
+      <c r="DA17">
+        <v>19076515</v>
+      </c>
+      <c r="DB17">
+        <v>9914626</v>
+      </c>
+      <c r="DC17">
+        <v>19947549</v>
+      </c>
+      <c r="DD17">
+        <v>13688213</v>
+      </c>
+      <c r="DE17">
+        <v>17107583</v>
+      </c>
+      <c r="DF17">
+        <v>2227376</v>
+      </c>
+      <c r="DG17">
+        <v>9806982</v>
+      </c>
+      <c r="DH17">
+        <v>13250467</v>
+      </c>
+      <c r="DI17">
+        <v>27066835</v>
+      </c>
+      <c r="DJ17">
+        <v>16327623</v>
+      </c>
+      <c r="DK17">
+        <v>13880202</v>
+      </c>
+      <c r="DL17">
+        <v>3519496</v>
+      </c>
+      <c r="DM17">
+        <v>21961007</v>
+      </c>
+      <c r="DN17">
+        <v>21258302</v>
+      </c>
+      <c r="DO17">
+        <v>1331431</v>
+      </c>
+      <c r="DP17">
+        <v>660546</v>
+      </c>
+      <c r="DQ17">
+        <v>64556</v>
+      </c>
+      <c r="DR17">
+        <v>6670999</v>
+      </c>
+      <c r="DS17">
+        <v>44141356</v>
+      </c>
+      <c r="DT17">
+        <v>26197253</v>
+      </c>
+      <c r="DU17">
+        <v>1829336</v>
+      </c>
+      <c r="DV17">
+        <v>11132446</v>
+      </c>
+      <c r="DW17">
+        <v>12780857</v>
+      </c>
+      <c r="DX17">
+        <v>5846339</v>
+      </c>
+      <c r="DY17">
+        <v>9003625</v>
+      </c>
+      <c r="DZ17">
+        <v>9360942</v>
+      </c>
+      <c r="EA17">
+        <v>8801992</v>
+      </c>
+      <c r="EB17">
+        <v>17519683</v>
+      </c>
+      <c r="EC17">
+        <v>1095451</v>
+      </c>
+      <c r="ED17">
+        <v>18610067</v>
+      </c>
+      <c r="EE17">
+        <v>8200691</v>
+      </c>
+      <c r="EF17">
+        <v>1444990</v>
+      </c>
+      <c r="EG17">
+        <v>14632913</v>
+      </c>
+      <c r="EH17">
+        <v>49874028</v>
+      </c>
+      <c r="EI17">
+        <v>12738970</v>
+      </c>
+      <c r="EJ17">
+        <v>13569969</v>
+      </c>
+      <c r="EK17">
+        <v>14143221</v>
+      </c>
+      <c r="EL17">
+        <v>7456157</v>
+      </c>
+      <c r="EM17">
+        <v>5001442</v>
+      </c>
+      <c r="EN17">
+        <v>5181461</v>
+      </c>
+      <c r="EO17">
+        <v>1259597</v>
+      </c>
+      <c r="EP17">
+        <v>1217155</v>
+      </c>
+      <c r="EQ17">
+        <v>19999088</v>
+      </c>
+      <c r="ER17">
+        <v>34366164</v>
+      </c>
+      <c r="ES17">
+        <v>38262417</v>
+      </c>
+      <c r="ET17">
+        <v>8468451</v>
+      </c>
+      <c r="EU17">
+        <v>1931945</v>
+      </c>
+      <c r="EV17">
+        <v>16787747</v>
+      </c>
+      <c r="EW17">
+        <v>10316998</v>
+      </c>
+      <c r="EX17" s="2">
+        <v>788515</v>
+      </c>
+      <c r="EY17">
+        <v>80551691</v>
+      </c>
+      <c r="EZ17">
+        <v>29335926</v>
+      </c>
+      <c r="FA17">
+        <v>5165974</v>
+      </c>
+      <c r="FB17">
+        <v>7231157</v>
+      </c>
+      <c r="FC17">
+        <v>40113603</v>
+      </c>
+      <c r="FD17">
+        <v>3411402</v>
+      </c>
+      <c r="FE17">
+        <v>4100840</v>
+      </c>
+      <c r="FF17">
+        <v>619200</v>
+      </c>
+      <c r="FG17">
+        <v>20705693</v>
+      </c>
+      <c r="FH17">
+        <v>17399506</v>
+      </c>
+      <c r="FI17">
+        <v>17944025</v>
+      </c>
+      <c r="FJ17">
+        <v>23428209</v>
+      </c>
+      <c r="FK17">
+        <v>23908771</v>
+      </c>
+      <c r="FL17">
+        <v>2093920</v>
+      </c>
+      <c r="FM17">
+        <v>18122185</v>
+      </c>
+      <c r="FN17">
+        <v>18250315</v>
+      </c>
+      <c r="FO17" s="3">
+        <v>1892941</v>
+      </c>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>4137927</v>
@@ -4015,10 +7004,10 @@
         <v>60231466</v>
       </c>
       <c r="CQ18">
+        <v>42303339</v>
+      </c>
+      <c r="CR18">
         <v>11065028</v>
-      </c>
-      <c r="CR18">
-        <v>42303339</v>
       </c>
       <c r="CS18">
         <v>30226222</v>
@@ -4029,10 +7018,226 @@
       <c r="CU18">
         <v>2764438</v>
       </c>
+      <c r="CV18">
+        <v>70752399</v>
+      </c>
+      <c r="CW18">
+        <v>105622827</v>
+      </c>
+      <c r="CX18">
+        <v>15712156</v>
+      </c>
+      <c r="CY18">
+        <v>37566549</v>
+      </c>
+      <c r="CZ18">
+        <v>52390389</v>
+      </c>
+      <c r="DA18">
+        <v>75903059</v>
+      </c>
+      <c r="DB18">
+        <v>75188929</v>
+      </c>
+      <c r="DC18">
+        <v>138303840</v>
+      </c>
+      <c r="DD18">
+        <v>135893057</v>
+      </c>
+      <c r="DE18">
+        <v>104114697</v>
+      </c>
+      <c r="DF18">
+        <v>26566682</v>
+      </c>
+      <c r="DG18">
+        <v>123282617</v>
+      </c>
+      <c r="DH18">
+        <v>92054401</v>
+      </c>
+      <c r="DI18">
+        <v>106630815</v>
+      </c>
+      <c r="DJ18">
+        <v>89917913</v>
+      </c>
+      <c r="DK18">
+        <v>134796285</v>
+      </c>
+      <c r="DL18">
+        <v>34913188</v>
+      </c>
+      <c r="DM18">
+        <v>133508292</v>
+      </c>
+      <c r="DN18">
+        <v>133672515</v>
+      </c>
+      <c r="DO18">
+        <v>25311428</v>
+      </c>
+      <c r="DP18">
+        <v>31857613</v>
+      </c>
+      <c r="DQ18">
+        <v>10615040</v>
+      </c>
+      <c r="DR18">
+        <v>96710722</v>
+      </c>
+      <c r="DS18">
+        <v>306199516</v>
+      </c>
+      <c r="DT18">
+        <v>119802290</v>
+      </c>
+      <c r="DU18">
+        <v>36231752</v>
+      </c>
+      <c r="DV18">
+        <v>120709582</v>
+      </c>
+      <c r="DW18">
+        <v>119065155</v>
+      </c>
+      <c r="DX18">
+        <v>84293798</v>
+      </c>
+      <c r="DY18">
+        <v>110832419</v>
+      </c>
+      <c r="DZ18">
+        <v>90264194</v>
+      </c>
+      <c r="EA18">
+        <v>92351836</v>
+      </c>
+      <c r="EB18">
+        <v>104858536</v>
+      </c>
+      <c r="EC18">
+        <v>6169524</v>
+      </c>
+      <c r="ED18">
+        <v>177289874</v>
+      </c>
+      <c r="EE18">
+        <v>129559951</v>
+      </c>
+      <c r="EF18">
+        <v>61455453</v>
+      </c>
+      <c r="EG18">
+        <v>113399566</v>
+      </c>
+      <c r="EH18">
+        <v>155290713</v>
+      </c>
+      <c r="EI18">
+        <v>83415015</v>
+      </c>
+      <c r="EJ18">
+        <v>83613007</v>
+      </c>
+      <c r="EK18">
+        <v>100412439</v>
+      </c>
+      <c r="EL18">
+        <v>85026614</v>
+      </c>
+      <c r="EM18">
+        <v>72045341</v>
+      </c>
+      <c r="EN18">
+        <v>71671598</v>
+      </c>
+      <c r="EO18">
+        <v>53319365</v>
+      </c>
+      <c r="EP18">
+        <v>65831857</v>
+      </c>
+      <c r="EQ18">
+        <v>139259944</v>
+      </c>
+      <c r="ER18">
+        <v>106117215</v>
+      </c>
+      <c r="ES18">
+        <v>105354411</v>
+      </c>
+      <c r="ET18">
+        <v>150510956</v>
+      </c>
+      <c r="EU18">
+        <v>75063716</v>
+      </c>
+      <c r="EV18">
+        <v>132932610</v>
+      </c>
+      <c r="EW18">
+        <v>120279957</v>
+      </c>
+      <c r="EX18" s="2">
+        <v>3884734</v>
+      </c>
+      <c r="EY18">
+        <v>99371401</v>
+      </c>
+      <c r="EZ18">
+        <v>84250220</v>
+      </c>
+      <c r="FA18">
+        <v>89807331</v>
+      </c>
+      <c r="FB18">
+        <v>38497414</v>
+      </c>
+      <c r="FC18">
+        <v>132432927</v>
+      </c>
+      <c r="FD18">
+        <v>27694958</v>
+      </c>
+      <c r="FE18">
+        <v>74367119</v>
+      </c>
+      <c r="FF18">
+        <v>7054701</v>
+      </c>
+      <c r="FG18">
+        <v>86306342</v>
+      </c>
+      <c r="FH18">
+        <v>73151174</v>
+      </c>
+      <c r="FI18">
+        <v>73262898</v>
+      </c>
+      <c r="FJ18">
+        <v>97284301</v>
+      </c>
+      <c r="FK18">
+        <v>97183436</v>
+      </c>
+      <c r="FL18">
+        <v>30306743</v>
+      </c>
+      <c r="FM18">
+        <v>99456999</v>
+      </c>
+      <c r="FN18">
+        <v>99397840</v>
+      </c>
+      <c r="FO18" s="3">
+        <v>30469021</v>
+      </c>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>139658</v>
@@ -4147,14 +7352,14 @@
       <c r="BI19">
         <v>7468</v>
       </c>
-      <c r="BJ19" s="8"/>
+      <c r="BJ19" s="6"/>
       <c r="BK19">
         <v>654172</v>
       </c>
       <c r="BL19" s="3">
         <v>378795</v>
       </c>
-      <c r="BM19" s="7"/>
+      <c r="BM19" s="5"/>
       <c r="BN19">
         <v>2278848</v>
       </c>
@@ -4209,10 +7414,96 @@
       <c r="CU19">
         <v>33350</v>
       </c>
+      <c r="DA19">
+        <v>11702</v>
+      </c>
+      <c r="DC19">
+        <v>215903</v>
+      </c>
+      <c r="DD19">
+        <v>89529</v>
+      </c>
+      <c r="DE19">
+        <v>86397</v>
+      </c>
+      <c r="DG19">
+        <v>277672</v>
+      </c>
+      <c r="DH19">
+        <v>321615</v>
+      </c>
+      <c r="DI19">
+        <v>825876</v>
+      </c>
+      <c r="DJ19">
+        <v>546948</v>
+      </c>
+      <c r="DR19">
+        <v>63707</v>
+      </c>
+      <c r="DS19">
+        <v>518737</v>
+      </c>
+      <c r="DT19">
+        <v>262909</v>
+      </c>
+      <c r="DV19">
+        <v>302760</v>
+      </c>
+      <c r="DW19">
+        <v>355152</v>
+      </c>
+      <c r="DX19">
+        <v>334276</v>
+      </c>
+      <c r="DY19">
+        <v>147543</v>
+      </c>
+      <c r="EI19">
+        <v>51653</v>
+      </c>
+      <c r="EJ19">
+        <v>45531</v>
+      </c>
+      <c r="EK19">
+        <v>107828</v>
+      </c>
+      <c r="EL19">
+        <v>36118</v>
+      </c>
+      <c r="EN19">
+        <v>4845</v>
+      </c>
+      <c r="EQ19">
+        <v>53640</v>
+      </c>
+      <c r="ET19">
+        <v>154767</v>
+      </c>
+      <c r="EU19">
+        <v>43700</v>
+      </c>
+      <c r="EV19">
+        <v>541572</v>
+      </c>
+      <c r="EW19">
+        <v>354349</v>
+      </c>
+      <c r="EX19" s="2"/>
+      <c r="EY19">
+        <v>121531</v>
+      </c>
+      <c r="EZ19">
+        <v>46546</v>
+      </c>
+      <c r="FC19">
+        <v>79291</v>
+      </c>
+      <c r="FO19" s="3"/>
     </row>
-    <row r="20" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>98570</v>
@@ -4263,14 +7554,14 @@
       <c r="AE20">
         <v>25793</v>
       </c>
-      <c r="BJ20" s="8"/>
+      <c r="BJ20" s="6"/>
       <c r="BK20">
         <v>30045</v>
       </c>
       <c r="BL20" s="3">
         <v>28505</v>
       </c>
-      <c r="BM20" s="7"/>
+      <c r="BM20" s="5"/>
       <c r="BP20">
         <v>285172</v>
       </c>
@@ -4293,9 +7584,9 @@
         <v>16363</v>
       </c>
     </row>
-    <row r="21" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I21">
         <v>97321</v>
@@ -4344,12 +7635,12 @@
         <v>58515</v>
       </c>
       <c r="BH21" s="2"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
       <c r="BL21" s="3">
         <v>18898</v>
       </c>
-      <c r="BM21" s="7"/>
+      <c r="BM21" s="5"/>
       <c r="BN21">
         <v>155478</v>
       </c>
@@ -4368,16 +7659,60 @@
       <c r="CU21">
         <v>13404</v>
       </c>
+      <c r="DC21">
+        <v>11479</v>
+      </c>
+      <c r="DG21">
+        <v>7651</v>
+      </c>
+      <c r="DH21">
+        <v>21368</v>
+      </c>
+      <c r="DI21">
+        <v>74495</v>
+      </c>
+      <c r="DJ21">
+        <v>41262</v>
+      </c>
+      <c r="DS21">
+        <v>20040</v>
+      </c>
+      <c r="DT21">
+        <v>12531</v>
+      </c>
+      <c r="DV21">
+        <v>27530</v>
+      </c>
+      <c r="DW21">
+        <v>19897</v>
+      </c>
+      <c r="DX21">
+        <v>20194</v>
+      </c>
+      <c r="ET21">
+        <v>21179</v>
+      </c>
+      <c r="EV21">
+        <v>69378</v>
+      </c>
+      <c r="EW21">
+        <v>64746</v>
+      </c>
+      <c r="EX21" s="2"/>
+      <c r="EY21">
+        <v>6609</v>
+      </c>
+      <c r="FO21" s="3"/>
     </row>
-    <row r="22" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M22" s="2"/>
       <c r="AC22" s="3"/>
-      <c r="BJ22" s="8"/>
+      <c r="BJ22" s="6"/>
       <c r="BL22" s="3"/>
-      <c r="BM22" s="7"/>
+      <c r="BM22" s="5"/>
       <c r="CF22">
         <v>3267</v>
       </c>
@@ -4390,10 +7725,36 @@
       <c r="CS22">
         <v>13266</v>
       </c>
+      <c r="EI22">
+        <v>142680</v>
+      </c>
+      <c r="EJ22">
+        <v>144394</v>
+      </c>
+      <c r="EK22">
+        <v>180028</v>
+      </c>
+      <c r="EL22">
+        <v>156231</v>
+      </c>
+      <c r="EN22">
+        <v>17786</v>
+      </c>
+      <c r="EO22">
+        <v>15295</v>
+      </c>
+      <c r="EP22">
+        <v>13219</v>
+      </c>
+      <c r="EX22" s="2"/>
+      <c r="FA22">
+        <v>132668</v>
+      </c>
+      <c r="FO22" s="3"/>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>58652</v>
@@ -4502,7 +7863,7 @@
         <v>17730</v>
       </c>
       <c r="BH23" s="2"/>
-      <c r="BJ23" s="8"/>
+      <c r="BJ23" s="6"/>
       <c r="BK23">
         <v>30387</v>
       </c>
@@ -4560,7 +7921,7 @@
       <c r="CP23">
         <v>30460</v>
       </c>
-      <c r="CR23">
+      <c r="CQ23">
         <v>27155</v>
       </c>
       <c r="CS23">
@@ -4569,10 +7930,206 @@
       <c r="CU23">
         <v>10822</v>
       </c>
+      <c r="CV23">
+        <v>99604</v>
+      </c>
+      <c r="CW23">
+        <v>115903</v>
+      </c>
+      <c r="CX23">
+        <v>18409</v>
+      </c>
+      <c r="CY23">
+        <v>59510</v>
+      </c>
+      <c r="CZ23">
+        <v>46340</v>
+      </c>
+      <c r="DA23">
+        <v>29220</v>
+      </c>
+      <c r="DB23">
+        <v>149006</v>
+      </c>
+      <c r="DC23">
+        <v>272542</v>
+      </c>
+      <c r="DD23">
+        <v>178954</v>
+      </c>
+      <c r="DE23">
+        <v>206498</v>
+      </c>
+      <c r="DG23">
+        <v>112297</v>
+      </c>
+      <c r="DH23">
+        <v>240768</v>
+      </c>
+      <c r="DI23">
+        <v>358854</v>
+      </c>
+      <c r="DJ23">
+        <v>232784</v>
+      </c>
+      <c r="DK23">
+        <v>124570</v>
+      </c>
+      <c r="DL23">
+        <v>52393</v>
+      </c>
+      <c r="DM23">
+        <v>589180</v>
+      </c>
+      <c r="DN23">
+        <v>614123</v>
+      </c>
+      <c r="DO23">
+        <v>16975</v>
+      </c>
+      <c r="DP23">
+        <v>15684</v>
+      </c>
+      <c r="DQ23">
+        <v>13306</v>
+      </c>
+      <c r="DR23">
+        <v>88751</v>
+      </c>
+      <c r="DS23">
+        <v>514628</v>
+      </c>
+      <c r="DT23">
+        <v>242203</v>
+      </c>
+      <c r="DV23">
+        <v>252569</v>
+      </c>
+      <c r="DW23">
+        <v>209469</v>
+      </c>
+      <c r="DX23">
+        <v>91163</v>
+      </c>
+      <c r="DY23">
+        <v>80722</v>
+      </c>
+      <c r="DZ23">
+        <v>144767</v>
+      </c>
+      <c r="EA23">
+        <v>125321</v>
+      </c>
+      <c r="EB23">
+        <v>239057</v>
+      </c>
+      <c r="ED23">
+        <v>171344</v>
+      </c>
+      <c r="EE23">
+        <v>27978</v>
+      </c>
+      <c r="EG23">
+        <v>141508</v>
+      </c>
+      <c r="EH23">
+        <v>221347</v>
+      </c>
+      <c r="EI23">
+        <v>458881</v>
+      </c>
+      <c r="EJ23">
+        <v>475992</v>
+      </c>
+      <c r="EK23">
+        <v>414148</v>
+      </c>
+      <c r="EL23">
+        <v>416531</v>
+      </c>
+      <c r="EM23">
+        <v>108130</v>
+      </c>
+      <c r="EN23">
+        <v>109142</v>
+      </c>
+      <c r="EO23">
+        <v>43628</v>
+      </c>
+      <c r="EP23">
+        <v>65568</v>
+      </c>
+      <c r="EQ23">
+        <v>262775</v>
+      </c>
+      <c r="ER23">
+        <v>265474</v>
+      </c>
+      <c r="ES23">
+        <v>289198</v>
+      </c>
+      <c r="ET23">
+        <v>240589</v>
+      </c>
+      <c r="EU23">
+        <v>80583</v>
+      </c>
+      <c r="EV23">
+        <v>621774</v>
+      </c>
+      <c r="EW23">
+        <v>372466</v>
+      </c>
+      <c r="EX23" s="2"/>
+      <c r="EY23">
+        <v>193188</v>
+      </c>
+      <c r="EZ23">
+        <v>85928</v>
+      </c>
+      <c r="FA23">
+        <v>218784</v>
+      </c>
+      <c r="FB23">
+        <v>35307</v>
+      </c>
+      <c r="FC23">
+        <v>352287</v>
+      </c>
+      <c r="FD23">
+        <v>45333</v>
+      </c>
+      <c r="FE23">
+        <v>138041</v>
+      </c>
+      <c r="FG23">
+        <v>161312</v>
+      </c>
+      <c r="FH23">
+        <v>204717</v>
+      </c>
+      <c r="FI23">
+        <v>206788</v>
+      </c>
+      <c r="FJ23">
+        <v>313508</v>
+      </c>
+      <c r="FK23">
+        <v>322633</v>
+      </c>
+      <c r="FM23">
+        <v>279787</v>
+      </c>
+      <c r="FN23">
+        <v>288138</v>
+      </c>
+      <c r="FO23" s="3">
+        <v>21529</v>
+      </c>
     </row>
-    <row r="24" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B24">
         <v>77526</v>
@@ -4608,14 +8165,14 @@
         <v>102451</v>
       </c>
       <c r="AC24" s="3"/>
-      <c r="BJ24" s="8"/>
+      <c r="BJ24" s="6"/>
       <c r="BK24">
         <v>26653</v>
       </c>
       <c r="BL24" s="3">
         <v>6462</v>
       </c>
-      <c r="BM24" s="7"/>
+      <c r="BM24" s="5"/>
       <c r="BP24">
         <v>223378</v>
       </c>
@@ -4632,9 +8189,9 @@
         <v>198820</v>
       </c>
     </row>
-    <row r="25" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="M25" s="2"/>
       <c r="AC25" s="3"/>
@@ -4648,9 +8205,9 @@
         <v>8365</v>
       </c>
       <c r="BH25" s="2"/>
-      <c r="BJ25" s="8"/>
+      <c r="BJ25" s="6"/>
       <c r="BL25" s="3"/>
-      <c r="BM25" s="7"/>
+      <c r="BM25" s="5"/>
       <c r="CH25">
         <v>47048</v>
       </c>
@@ -4672,10 +8229,42 @@
       <c r="CS25">
         <v>45595</v>
       </c>
+      <c r="CY25">
+        <v>25519</v>
+      </c>
+      <c r="CZ25">
+        <v>63910</v>
+      </c>
+      <c r="EI25">
+        <v>372967</v>
+      </c>
+      <c r="EJ25">
+        <v>362002</v>
+      </c>
+      <c r="EK25">
+        <v>414669</v>
+      </c>
+      <c r="EL25">
+        <v>394751</v>
+      </c>
+      <c r="EN25">
+        <v>5030</v>
+      </c>
+      <c r="EO25">
+        <v>28336</v>
+      </c>
+      <c r="EP25">
+        <v>43885</v>
+      </c>
+      <c r="EX25" s="2"/>
+      <c r="FA25">
+        <v>277844</v>
+      </c>
+      <c r="FO25" s="3"/>
     </row>
-    <row r="26" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2"/>
       <c r="F26" s="2"/>
@@ -4725,19 +8314,55 @@
       <c r="AS26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
-      <c r="BJ26" s="8"/>
+      <c r="BJ26" s="6"/>
       <c r="BL26" s="3"/>
-      <c r="BM26" s="7"/>
+      <c r="BM26" s="5"/>
       <c r="CT26">
         <v>105832</v>
       </c>
       <c r="CU26">
         <v>233211</v>
       </c>
+      <c r="CW26" s="2"/>
+      <c r="CY26" s="2"/>
+      <c r="CZ26" s="2"/>
+      <c r="DC26" s="2"/>
+      <c r="DD26" s="2"/>
+      <c r="DG26" s="2"/>
+      <c r="DK26" s="2"/>
+      <c r="DL26" s="2">
+        <v>21243</v>
+      </c>
+      <c r="DO26" s="2"/>
+      <c r="DQ26" s="2"/>
+      <c r="DR26" s="2"/>
+      <c r="DS26" s="2"/>
+      <c r="DU26" s="2"/>
+      <c r="DY26" s="2"/>
+      <c r="DZ26" s="2">
+        <v>17205</v>
+      </c>
+      <c r="EA26" s="2"/>
+      <c r="ED26" s="2"/>
+      <c r="EE26" s="2"/>
+      <c r="EF26" s="2"/>
+      <c r="EG26" s="2"/>
+      <c r="EH26" s="2"/>
+      <c r="EO26" s="2"/>
+      <c r="EP26" s="2"/>
+      <c r="EQ26" s="2"/>
+      <c r="ET26" s="2"/>
+      <c r="EU26" s="2">
+        <v>18538</v>
+      </c>
+      <c r="EX26" s="2"/>
+      <c r="FF26" s="2"/>
+      <c r="FL26" s="2"/>
+      <c r="FO26" s="4"/>
     </row>
-    <row r="27" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>47081057</v>
@@ -4858,363 +8483,605 @@
       <c r="CU27">
         <v>203903</v>
       </c>
+      <c r="CW27" s="2"/>
+      <c r="CY27" s="2"/>
+      <c r="CZ27" s="2"/>
+      <c r="DC27" s="2"/>
+      <c r="DD27" s="2"/>
+      <c r="DE27">
+        <v>1776243</v>
+      </c>
+      <c r="DG27" s="2"/>
+      <c r="DK27" s="2"/>
+      <c r="DL27" s="2"/>
+      <c r="DO27" s="2"/>
+      <c r="DQ27" s="2"/>
+      <c r="DR27" s="2"/>
+      <c r="DS27" s="2"/>
+      <c r="DU27" s="2"/>
+      <c r="DW27">
+        <v>52729</v>
+      </c>
+      <c r="DY27" s="2"/>
+      <c r="DZ27" s="2"/>
+      <c r="EA27" s="2"/>
+      <c r="ED27" s="2"/>
+      <c r="EE27" s="2"/>
+      <c r="EF27" s="2"/>
+      <c r="EG27" s="2"/>
+      <c r="EH27" s="2"/>
+      <c r="EK27">
+        <v>21274</v>
+      </c>
+      <c r="EO27" s="2"/>
+      <c r="EP27" s="2"/>
+      <c r="EQ27" s="2"/>
+      <c r="ET27" s="2"/>
+      <c r="EU27" s="2"/>
+      <c r="EX27" s="2">
+        <v>372673</v>
+      </c>
+      <c r="FF27" s="2"/>
+      <c r="FL27" s="2"/>
+      <c r="FO27" s="4"/>
     </row>
-    <row r="28" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28">
-        <v>51764603</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="I28">
-        <v>24833</v>
-      </c>
-      <c r="J28">
-        <v>264554</v>
-      </c>
-      <c r="L28">
-        <v>16614873</v>
-      </c>
+    <row r="28" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28">
-        <v>15652665</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="T28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="AC28" s="3">
-        <v>231787</v>
-      </c>
-      <c r="AD28">
-        <v>734860</v>
-      </c>
-      <c r="AE28">
-        <v>299820</v>
-      </c>
-      <c r="AF28">
-        <v>414888</v>
-      </c>
-      <c r="AG28">
-        <v>41217</v>
-      </c>
+      <c r="AC28" s="2"/>
+      <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="2">
-        <v>22146071</v>
-      </c>
-      <c r="AM28">
-        <v>903404</v>
-      </c>
-      <c r="AN28">
-        <v>4076881</v>
-      </c>
-      <c r="AO28">
-        <v>6166918</v>
-      </c>
+      <c r="AL28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-      <c r="BJ28" s="8"/>
-      <c r="BK28" s="8"/>
+      <c r="BH28" s="2"/>
       <c r="BL28" s="3"/>
-      <c r="BM28" s="7"/>
-      <c r="BS28">
+      <c r="BM28" s="2"/>
+      <c r="CW28" s="2"/>
+      <c r="CY28" s="2"/>
+      <c r="CZ28" s="2"/>
+      <c r="DC28" s="2"/>
+      <c r="DD28" s="2"/>
+      <c r="DG28" s="2"/>
+      <c r="DK28" s="2"/>
+      <c r="DL28" s="2"/>
+      <c r="DO28" s="2"/>
+      <c r="DQ28" s="2"/>
+      <c r="DR28" s="2"/>
+      <c r="DS28" s="2"/>
+      <c r="DU28" s="2"/>
+      <c r="DY28" s="2"/>
+      <c r="DZ28" s="2"/>
+      <c r="EA28" s="2"/>
+      <c r="ED28" s="2"/>
+      <c r="EE28" s="2"/>
+      <c r="EF28" s="2"/>
+      <c r="EG28" s="2"/>
+      <c r="EH28" s="2"/>
+      <c r="EI28">
+        <v>62185</v>
+      </c>
+      <c r="EJ28">
+        <v>56036</v>
+      </c>
+      <c r="EK28">
+        <v>75073</v>
+      </c>
+      <c r="EL28">
+        <v>132894</v>
+      </c>
+      <c r="EN28">
+        <v>15969</v>
+      </c>
+      <c r="EO28" s="2">
+        <v>9963</v>
+      </c>
+      <c r="EP28" s="2">
+        <v>9371</v>
+      </c>
+      <c r="EQ28" s="2"/>
+      <c r="ET28" s="2"/>
+      <c r="EU28" s="2"/>
+      <c r="EX28" s="2"/>
+      <c r="FF28" s="2"/>
+      <c r="FL28" s="2"/>
+      <c r="FO28" s="4"/>
+    </row>
+    <row r="29" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29">
+        <v>51764603</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="I29">
+        <v>24833</v>
+      </c>
+      <c r="J29">
+        <v>264554</v>
+      </c>
+      <c r="L29">
+        <v>16614873</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29">
+        <v>15652665</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="AC29" s="3">
+        <v>231787</v>
+      </c>
+      <c r="AD29">
+        <v>734860</v>
+      </c>
+      <c r="AE29">
+        <v>299820</v>
+      </c>
+      <c r="AF29">
+        <v>414888</v>
+      </c>
+      <c r="AG29">
+        <v>41217</v>
+      </c>
+      <c r="AH29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2">
+        <v>22146071</v>
+      </c>
+      <c r="AM29">
+        <v>903404</v>
+      </c>
+      <c r="AN29">
+        <v>4076881</v>
+      </c>
+      <c r="AO29">
+        <v>6166918</v>
+      </c>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="6"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="5"/>
+      <c r="BS29">
         <v>6418</v>
       </c>
-      <c r="BW28">
+      <c r="BW29">
         <v>4585950</v>
       </c>
-      <c r="CT28">
+      <c r="CT29">
         <v>3386036</v>
       </c>
-      <c r="CU28">
+      <c r="CU29">
         <v>6304892</v>
       </c>
+      <c r="CW29" s="2"/>
+      <c r="CY29" s="2"/>
+      <c r="CZ29" s="2"/>
+      <c r="DC29" s="2">
+        <v>15537</v>
+      </c>
+      <c r="DD29" s="2"/>
+      <c r="DG29" s="2"/>
+      <c r="DK29" s="2">
+        <v>50186</v>
+      </c>
+      <c r="DL29" s="2">
+        <v>318466</v>
+      </c>
+      <c r="DM29">
+        <v>9057</v>
+      </c>
+      <c r="DO29" s="2"/>
+      <c r="DP29">
+        <v>17769</v>
+      </c>
+      <c r="DQ29" s="2"/>
+      <c r="DR29" s="2">
+        <v>27203</v>
+      </c>
+      <c r="DS29" s="2">
+        <v>60652</v>
+      </c>
+      <c r="DU29" s="2"/>
+      <c r="DY29" s="2"/>
+      <c r="DZ29" s="2">
+        <v>25209</v>
+      </c>
+      <c r="EA29" s="2"/>
+      <c r="ED29" s="2"/>
+      <c r="EE29" s="2">
+        <v>39995</v>
+      </c>
+      <c r="EF29" s="2"/>
+      <c r="EG29" s="2"/>
+      <c r="EH29" s="2"/>
+      <c r="EO29" s="2"/>
+      <c r="EP29" s="2"/>
+      <c r="EQ29" s="2">
+        <v>14776</v>
+      </c>
+      <c r="ER29">
+        <v>16604</v>
+      </c>
+      <c r="ET29" s="2">
+        <v>278051</v>
+      </c>
+      <c r="EU29" s="2">
+        <v>125177</v>
+      </c>
+      <c r="EX29" s="2"/>
+      <c r="EY29">
+        <v>5577</v>
+      </c>
+      <c r="FF29" s="2"/>
+      <c r="FG29">
+        <v>22318</v>
+      </c>
+      <c r="FL29" s="2"/>
+      <c r="FO29" s="4"/>
     </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="Q29">
+    <row r="30" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="Q30">
         <v>2791</v>
       </c>
-      <c r="AC29" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="CW30" s="2"/>
+      <c r="CY30" s="2">
+        <v>3361</v>
+      </c>
+      <c r="CZ30" s="2">
+        <v>9040</v>
+      </c>
+      <c r="DC30" s="2"/>
+      <c r="DD30" s="2"/>
+      <c r="DG30" s="2"/>
+      <c r="DK30" s="2"/>
+      <c r="DL30" s="2"/>
+      <c r="DO30" s="2"/>
+      <c r="DQ30" s="2"/>
+      <c r="DR30" s="2"/>
+      <c r="DS30" s="2"/>
+      <c r="DU30" s="2"/>
+      <c r="DY30" s="2"/>
+      <c r="DZ30" s="2"/>
+      <c r="EA30" s="2"/>
+      <c r="ED30" s="2"/>
+      <c r="EE30" s="2"/>
+      <c r="EF30" s="2"/>
+      <c r="EG30" s="2"/>
+      <c r="EH30" s="2"/>
+      <c r="EI30">
+        <v>92440</v>
+      </c>
+      <c r="EJ30">
+        <v>92440</v>
+      </c>
+      <c r="EK30">
+        <v>81623</v>
+      </c>
+      <c r="EL30">
+        <v>184303</v>
+      </c>
+      <c r="EM30">
+        <v>21077</v>
+      </c>
+      <c r="EN30">
+        <v>29251</v>
+      </c>
+      <c r="EO30" s="2">
+        <v>14329</v>
+      </c>
+      <c r="EP30" s="2">
+        <v>16436</v>
+      </c>
+      <c r="EQ30" s="2"/>
+      <c r="ET30" s="2"/>
+      <c r="EU30" s="2"/>
+      <c r="EX30" s="2"/>
+      <c r="FA30">
+        <v>78885</v>
+      </c>
+      <c r="FF30" s="2"/>
+      <c r="FL30" s="2"/>
+      <c r="FO30" s="4"/>
     </row>
-    <row r="30" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="E30">
+    <row r="31" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="E31">
         <v>38393</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30">
-        <v>67818</v>
-      </c>
-      <c r="K30">
-        <v>1128926</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30">
-        <v>1114180</v>
-      </c>
-      <c r="R30">
-        <v>106097</v>
-      </c>
-      <c r="S30">
-        <v>58295</v>
-      </c>
-      <c r="T30">
-        <v>292994</v>
-      </c>
-      <c r="U30">
-        <v>137607</v>
-      </c>
-      <c r="V30">
-        <v>499682</v>
-      </c>
-      <c r="W30">
-        <v>78308</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30">
-        <v>116840</v>
-      </c>
-      <c r="Z30">
-        <v>53183</v>
-      </c>
-      <c r="AA30">
-        <v>61043</v>
-      </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30">
-        <v>54281</v>
-      </c>
-      <c r="AF30">
-        <v>22695</v>
-      </c>
-      <c r="AG30">
-        <v>71505</v>
-      </c>
-      <c r="AH30" s="2"/>
-      <c r="AI30">
-        <v>12128</v>
-      </c>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AP30">
-        <v>80180</v>
-      </c>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30">
-        <v>135970</v>
-      </c>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30">
-        <v>15942</v>
-      </c>
-      <c r="AX30">
-        <v>611726</v>
-      </c>
-      <c r="AY30">
-        <v>6695891</v>
-      </c>
-      <c r="AZ30">
-        <v>1499708</v>
-      </c>
-      <c r="BB30">
-        <v>1280738</v>
-      </c>
-      <c r="BC30">
-        <v>3575627</v>
-      </c>
-      <c r="BD30">
-        <v>327080</v>
-      </c>
-      <c r="BE30">
-        <v>377867</v>
-      </c>
-      <c r="BF30">
-        <v>211288</v>
-      </c>
-      <c r="BG30">
-        <v>76229</v>
-      </c>
-      <c r="BH30" s="2"/>
-      <c r="BI30">
-        <v>5424</v>
-      </c>
-      <c r="BJ30" s="8"/>
-      <c r="BK30">
-        <v>26506</v>
-      </c>
-      <c r="BL30" s="3"/>
-      <c r="BM30" s="7"/>
-      <c r="BP30">
-        <v>207229</v>
-      </c>
-      <c r="BT30">
-        <v>159736</v>
-      </c>
-      <c r="BZ30">
-        <v>24732</v>
-      </c>
-      <c r="CA30">
-        <v>14881</v>
-      </c>
-      <c r="CE30">
-        <v>174767</v>
-      </c>
-      <c r="CH30">
-        <v>5723673</v>
-      </c>
-      <c r="CI30">
-        <v>35164662</v>
-      </c>
-      <c r="CL30">
-        <v>3882120</v>
-      </c>
-      <c r="CM30">
-        <v>4132499</v>
-      </c>
-      <c r="CO30">
-        <v>16392379</v>
-      </c>
-      <c r="CP30">
-        <v>7769092</v>
-      </c>
-      <c r="CR30">
-        <v>204489</v>
-      </c>
-      <c r="CS30">
-        <v>11303947</v>
-      </c>
-    </row>
-    <row r="31" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31">
+        <v>67818</v>
+      </c>
+      <c r="K31">
+        <v>1128926</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="Q31">
+        <v>1114180</v>
+      </c>
+      <c r="R31">
+        <v>106097</v>
+      </c>
+      <c r="S31">
+        <v>58295</v>
+      </c>
+      <c r="T31">
+        <v>292994</v>
+      </c>
+      <c r="U31">
+        <v>137607</v>
+      </c>
+      <c r="V31">
+        <v>499682</v>
+      </c>
+      <c r="W31">
+        <v>78308</v>
+      </c>
       <c r="X31" s="2"/>
+      <c r="Y31">
+        <v>116840</v>
+      </c>
+      <c r="Z31">
+        <v>53183</v>
+      </c>
+      <c r="AA31">
+        <v>61043</v>
+      </c>
       <c r="AC31" s="2"/>
+      <c r="AD31">
+        <v>54281</v>
+      </c>
+      <c r="AF31">
+        <v>22695</v>
+      </c>
+      <c r="AG31">
+        <v>71505</v>
+      </c>
       <c r="AH31" s="2"/>
+      <c r="AI31">
+        <v>12128</v>
+      </c>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
+      <c r="AP31">
+        <v>80180</v>
+      </c>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
+      <c r="AT31">
+        <v>135970</v>
+      </c>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
-      <c r="BA31">
-        <v>29730</v>
+      <c r="AW31">
+        <v>15942</v>
+      </c>
+      <c r="AX31">
+        <v>611726</v>
+      </c>
+      <c r="AY31">
+        <v>6695891</v>
+      </c>
+      <c r="AZ31">
+        <v>1499708</v>
+      </c>
+      <c r="BB31">
+        <v>1280738</v>
+      </c>
+      <c r="BC31">
+        <v>3575627</v>
+      </c>
+      <c r="BD31">
+        <v>327080</v>
+      </c>
+      <c r="BE31">
+        <v>377867</v>
+      </c>
+      <c r="BF31">
+        <v>211288</v>
+      </c>
+      <c r="BG31">
+        <v>76229</v>
       </c>
       <c r="BH31" s="2"/>
+      <c r="BI31">
+        <v>5424</v>
+      </c>
+      <c r="BJ31" s="6"/>
+      <c r="BK31">
+        <v>26506</v>
+      </c>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="5"/>
+      <c r="BP31">
+        <v>207229</v>
+      </c>
+      <c r="BT31">
+        <v>159736</v>
+      </c>
+      <c r="BZ31">
+        <v>24732</v>
+      </c>
+      <c r="CA31">
+        <v>14881</v>
+      </c>
+      <c r="CE31">
+        <v>174767</v>
+      </c>
+      <c r="CH31">
+        <v>5723673</v>
+      </c>
+      <c r="CI31">
+        <v>35164662</v>
+      </c>
+      <c r="CL31">
+        <v>3882120</v>
+      </c>
+      <c r="CM31">
+        <v>4132499</v>
+      </c>
+      <c r="CO31">
+        <v>16392379</v>
+      </c>
+      <c r="CP31">
+        <v>7769092</v>
+      </c>
+      <c r="CQ31">
+        <v>204489</v>
+      </c>
+      <c r="CS31">
+        <v>11303947</v>
+      </c>
+      <c r="CX31">
+        <v>629498</v>
+      </c>
+      <c r="CY31">
+        <v>4219726</v>
+      </c>
+      <c r="CZ31">
+        <v>8711940</v>
+      </c>
+      <c r="DM31">
+        <v>62602</v>
+      </c>
+      <c r="DN31">
+        <v>64243</v>
+      </c>
+      <c r="DO31">
+        <v>1365391</v>
+      </c>
+      <c r="DP31">
+        <v>2558558</v>
+      </c>
+      <c r="DQ31">
+        <v>3851607</v>
+      </c>
+      <c r="DV31">
+        <v>140477</v>
+      </c>
+      <c r="EI31">
+        <v>26876959</v>
+      </c>
+      <c r="EJ31">
+        <v>26887748</v>
+      </c>
+      <c r="EK31">
+        <v>19859379</v>
+      </c>
+      <c r="EL31">
+        <v>23339035</v>
+      </c>
+      <c r="EM31">
+        <v>9661696</v>
+      </c>
+      <c r="EN31">
+        <v>9674897</v>
+      </c>
+      <c r="EO31">
+        <v>9113992</v>
+      </c>
+      <c r="EP31">
+        <v>12415189</v>
+      </c>
+      <c r="EX31" s="2"/>
+      <c r="FA31">
+        <v>19379319</v>
+      </c>
+      <c r="FO31" s="3"/>
     </row>
-    <row r="32" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>213375</v>
-      </c>
-      <c r="E32">
-        <v>38443</v>
-      </c>
-      <c r="F32">
-        <v>11693</v>
-      </c>
-      <c r="G32">
-        <v>5369</v>
-      </c>
-      <c r="H32">
-        <v>15991</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32">
-        <v>28191</v>
-      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="T32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="AC32" s="4"/>
-      <c r="AG32" s="2"/>
+      <c r="AC32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
-      <c r="AP32">
-        <v>8945</v>
-      </c>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
+      <c r="BA32">
+        <v>29730</v>
+      </c>
+      <c r="BH32" s="2"/>
     </row>
-    <row r="33" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:171" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="B33">
-        <v>96549</v>
-      </c>
-      <c r="C33">
-        <v>20998</v>
+        <v>213375</v>
       </c>
       <c r="E33">
-        <v>94252</v>
+        <v>38443</v>
       </c>
       <c r="F33">
-        <v>30656</v>
+        <v>11693</v>
       </c>
       <c r="G33">
-        <v>23614</v>
+        <v>5369</v>
       </c>
       <c r="H33">
-        <v>81512</v>
+        <v>15991</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" s="2">
-        <v>32411</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33">
-        <v>27148</v>
-      </c>
-      <c r="O33">
-        <v>38341</v>
-      </c>
+        <v>28191</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33">
-        <v>19468</v>
-      </c>
       <c r="X33" s="2"/>
       <c r="AC33" s="4"/>
       <c r="AG33" s="2"/>
@@ -5223,7 +9090,7 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AP33">
-        <v>30929</v>
+        <v>8945</v>
       </c>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
@@ -5231,657 +9098,1131 @@
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
     </row>
-    <row r="34" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2">
+    <row r="34" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34">
+        <v>96549</v>
+      </c>
+      <c r="C34">
+        <v>20998</v>
+      </c>
+      <c r="E34">
+        <v>94252</v>
+      </c>
+      <c r="F34">
+        <v>30656</v>
+      </c>
+      <c r="G34">
+        <v>23614</v>
+      </c>
+      <c r="H34">
+        <v>81512</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
+        <v>32411</v>
+      </c>
+      <c r="N34">
+        <v>27148</v>
+      </c>
+      <c r="O34">
+        <v>38341</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34">
+        <v>19468</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="AC34" s="4"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AP34">
+        <v>30929</v>
+      </c>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+    </row>
+    <row r="35" spans="1:171" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="2">
         <v>88472</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>47416</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>73933</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>13283</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M35" s="2">
         <v>19397</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q35" s="2">
         <v>280338</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R35" s="2">
         <v>154077</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S35" s="2">
         <v>188047</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W35" s="2">
         <v>427710</v>
       </c>
-      <c r="AC34" s="4"/>
-      <c r="AT34" s="2">
+      <c r="AC35" s="4"/>
+      <c r="AT35" s="2">
         <v>67138</v>
       </c>
-      <c r="CI34"/>
-      <c r="CJ34"/>
-      <c r="CK34"/>
-      <c r="CL34"/>
-      <c r="CM34"/>
-      <c r="CN34"/>
-      <c r="CO34"/>
-      <c r="CP34"/>
-      <c r="CQ34"/>
-      <c r="CR34"/>
-      <c r="CS34"/>
-      <c r="CT34"/>
-      <c r="CU34"/>
+      <c r="CI35"/>
+      <c r="CJ35"/>
+      <c r="CK35"/>
+      <c r="CL35"/>
+      <c r="CM35"/>
+      <c r="CN35"/>
+      <c r="CO35"/>
+      <c r="CP35"/>
+      <c r="CQ35"/>
+      <c r="CR35"/>
+      <c r="CS35"/>
+      <c r="CT35"/>
+      <c r="CU35"/>
     </row>
-    <row r="35" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="E35">
+    <row r="36" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="E36">
         <v>35975</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="I35">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36">
         <v>230011</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>233626</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>13360</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
         <v>75446</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>27411</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35">
+      <c r="P36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36">
         <v>403998</v>
       </c>
-      <c r="X35" s="2"/>
-      <c r="AC35" s="4"/>
-      <c r="AG35">
+      <c r="X36" s="2"/>
+      <c r="AC36" s="4"/>
+      <c r="AG36">
         <v>222824</v>
       </c>
-      <c r="AH35" s="2"/>
-      <c r="AI35">
+      <c r="AH36" s="2"/>
+      <c r="AI36">
         <v>32804</v>
       </c>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AP35">
-        <v>241924</v>
-      </c>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AY35">
-        <v>34533</v>
-      </c>
-      <c r="BH35" s="2"/>
-      <c r="BJ35" s="8"/>
-      <c r="BL35" s="3">
-        <v>19845</v>
-      </c>
-      <c r="BM35" s="7"/>
-      <c r="BP35">
-        <v>35287</v>
-      </c>
-      <c r="BY35">
-        <v>98595</v>
-      </c>
-      <c r="CE35">
-        <v>25736</v>
-      </c>
-      <c r="CH35">
-        <v>32974</v>
-      </c>
-      <c r="CI35">
-        <v>35217</v>
-      </c>
-      <c r="CJ35">
-        <v>28716</v>
-      </c>
-      <c r="CN35">
-        <v>71567</v>
-      </c>
-    </row>
-    <row r="36" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>75502</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36">
-        <v>74808</v>
-      </c>
-      <c r="T36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36">
-        <v>138255</v>
-      </c>
-      <c r="Z36">
-        <v>19795</v>
-      </c>
-      <c r="AA36">
-        <v>16081</v>
-      </c>
-      <c r="AB36">
-        <v>141547</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>133205</v>
-      </c>
-      <c r="AD36">
-        <v>255854</v>
-      </c>
-      <c r="AE36">
-        <v>203496</v>
-      </c>
-      <c r="AF36">
-        <v>309429</v>
-      </c>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AP36">
-        <v>19702</v>
-      </c>
-      <c r="AQ36">
-        <v>100669</v>
-      </c>
-      <c r="AR36">
-        <v>78191</v>
-      </c>
+        <v>241924</v>
+      </c>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
-      <c r="AX36">
-        <v>62358</v>
-      </c>
       <c r="AY36">
-        <v>70024</v>
-      </c>
-      <c r="AZ36">
-        <v>7863</v>
-      </c>
-      <c r="BA36">
-        <v>59676</v>
-      </c>
-      <c r="BC36">
-        <v>16036</v>
-      </c>
-      <c r="BF36">
-        <v>17304</v>
-      </c>
-      <c r="BG36">
-        <v>49589</v>
+        <v>34533</v>
       </c>
       <c r="BH36" s="2"/>
-      <c r="BI36">
-        <v>12153</v>
-      </c>
-      <c r="BJ36">
-        <v>37657</v>
-      </c>
-      <c r="BK36" s="8"/>
-      <c r="BL36" s="3"/>
-      <c r="BM36" s="7"/>
+      <c r="BJ36" s="6"/>
+      <c r="BL36" s="3">
+        <v>19845</v>
+      </c>
+      <c r="BM36" s="5"/>
       <c r="BP36">
-        <v>160730</v>
-      </c>
-      <c r="BT36">
-        <v>149263</v>
-      </c>
-      <c r="BV36">
-        <v>165132</v>
+        <v>35287</v>
+      </c>
+      <c r="BY36">
+        <v>98595</v>
+      </c>
+      <c r="CE36">
+        <v>25736</v>
       </c>
       <c r="CH36">
-        <v>70643</v>
+        <v>32974</v>
       </c>
       <c r="CI36">
-        <v>39017</v>
-      </c>
-      <c r="CO36">
-        <v>232008</v>
-      </c>
-      <c r="CP36">
-        <v>51871</v>
-      </c>
-      <c r="CS36">
-        <v>66558</v>
+        <v>35217</v>
+      </c>
+      <c r="CJ36">
+        <v>28716</v>
+      </c>
+      <c r="CN36">
+        <v>71567</v>
+      </c>
+      <c r="CV36">
+        <v>0</v>
+      </c>
+      <c r="CW36">
+        <v>0</v>
+      </c>
+      <c r="CX36">
+        <v>0</v>
+      </c>
+      <c r="CY36">
+        <v>0</v>
+      </c>
+      <c r="CZ36">
+        <v>0</v>
+      </c>
+      <c r="DA36">
+        <v>0</v>
+      </c>
+      <c r="DB36">
+        <v>0</v>
+      </c>
+      <c r="DC36">
+        <v>66713</v>
+      </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>63244</v>
+      </c>
+      <c r="DF36">
+        <v>0</v>
+      </c>
+      <c r="DG36">
+        <v>0</v>
+      </c>
+      <c r="DH36">
+        <v>0</v>
+      </c>
+      <c r="DI36">
+        <v>0</v>
+      </c>
+      <c r="DJ36">
+        <v>0</v>
+      </c>
+      <c r="DK36">
+        <v>0</v>
+      </c>
+      <c r="DL36">
+        <v>0</v>
+      </c>
+      <c r="DM36">
+        <v>0</v>
+      </c>
+      <c r="DN36">
+        <v>0</v>
+      </c>
+      <c r="DO36">
+        <v>0</v>
+      </c>
+      <c r="DP36">
+        <v>0</v>
+      </c>
+      <c r="DQ36">
+        <v>0</v>
+      </c>
+      <c r="DR36">
+        <v>0</v>
+      </c>
+      <c r="DS36">
+        <v>32636</v>
+      </c>
+      <c r="DT36">
+        <v>9844</v>
+      </c>
+      <c r="DU36">
+        <v>0</v>
+      </c>
+      <c r="DV36">
+        <v>0</v>
+      </c>
+      <c r="DW36">
+        <v>0</v>
+      </c>
+      <c r="DX36">
+        <v>60758</v>
+      </c>
+      <c r="DY36">
+        <v>0</v>
+      </c>
+      <c r="DZ36">
+        <v>0</v>
+      </c>
+      <c r="EA36">
+        <v>0</v>
+      </c>
+      <c r="EB36">
+        <v>0</v>
+      </c>
+      <c r="EC36">
+        <v>0</v>
+      </c>
+      <c r="ED36">
+        <v>0</v>
+      </c>
+      <c r="EE36">
+        <v>0</v>
+      </c>
+      <c r="EF36">
+        <v>0</v>
+      </c>
+      <c r="EG36">
+        <v>0</v>
+      </c>
+      <c r="EH36">
+        <v>0</v>
+      </c>
+      <c r="EI36">
+        <v>0</v>
+      </c>
+      <c r="EJ36">
+        <v>0</v>
+      </c>
+      <c r="EK36">
+        <v>0</v>
+      </c>
+      <c r="EL36">
+        <v>0</v>
+      </c>
+      <c r="EM36">
+        <v>0</v>
+      </c>
+      <c r="EN36">
+        <v>0</v>
+      </c>
+      <c r="EO36">
+        <v>0</v>
+      </c>
+      <c r="EP36">
+        <v>0</v>
+      </c>
+      <c r="EQ36">
+        <v>0</v>
+      </c>
+      <c r="ER36">
+        <v>0</v>
+      </c>
+      <c r="ES36">
+        <v>0</v>
+      </c>
+      <c r="ET36">
+        <v>90964</v>
+      </c>
+      <c r="EU36">
+        <v>17887</v>
+      </c>
+      <c r="EV36">
+        <v>287235</v>
+      </c>
+      <c r="EW36">
+        <v>238832</v>
+      </c>
+      <c r="EX36">
+        <v>0</v>
+      </c>
+      <c r="EY36">
+        <v>0</v>
+      </c>
+      <c r="EZ36">
+        <v>0</v>
+      </c>
+      <c r="FA36">
+        <v>0</v>
+      </c>
+      <c r="FB36">
+        <v>0</v>
+      </c>
+      <c r="FC36">
+        <v>20697</v>
+      </c>
+      <c r="FD36">
+        <v>0</v>
+      </c>
+      <c r="FE36">
+        <v>0</v>
+      </c>
+      <c r="FF36">
+        <v>0</v>
+      </c>
+      <c r="FG36">
+        <v>0</v>
+      </c>
+      <c r="FH36">
+        <v>0</v>
+      </c>
+      <c r="FI36">
+        <v>0</v>
+      </c>
+      <c r="FJ36">
+        <v>0</v>
+      </c>
+      <c r="FK36">
+        <v>0</v>
+      </c>
+      <c r="FL36">
+        <v>0</v>
+      </c>
+      <c r="FM36">
+        <v>0</v>
+      </c>
+      <c r="FN36">
+        <v>0</v>
+      </c>
+      <c r="FO36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
+    <row r="37" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>133</v>
       </c>
       <c r="B37">
-        <v>160200</v>
-      </c>
-      <c r="E37">
-        <v>62596</v>
+        <v>75502</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37">
-        <v>70143</v>
-      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37">
-        <v>20078</v>
-      </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="P37">
+        <v>74808</v>
+      </c>
       <c r="T37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="AC37" s="2"/>
+      <c r="Y37">
+        <v>138255</v>
+      </c>
+      <c r="Z37">
+        <v>19795</v>
+      </c>
+      <c r="AA37">
+        <v>16081</v>
+      </c>
+      <c r="AB37">
+        <v>141547</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>133205</v>
+      </c>
+      <c r="AD37">
+        <v>255854</v>
+      </c>
+      <c r="AE37">
+        <v>203496</v>
+      </c>
+      <c r="AF37">
+        <v>309429</v>
+      </c>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
+      <c r="AP37">
+        <v>19702</v>
+      </c>
+      <c r="AQ37">
+        <v>100669</v>
+      </c>
+      <c r="AR37">
+        <v>78191</v>
+      </c>
       <c r="AS37" s="2"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
+      <c r="AX37">
+        <v>62358</v>
+      </c>
+      <c r="AY37">
+        <v>70024</v>
+      </c>
+      <c r="AZ37">
+        <v>7863</v>
+      </c>
+      <c r="BA37">
+        <v>59676</v>
+      </c>
+      <c r="BC37">
+        <v>16036</v>
+      </c>
+      <c r="BF37">
+        <v>17304</v>
+      </c>
+      <c r="BG37">
+        <v>49589</v>
+      </c>
+      <c r="BH37" s="2"/>
+      <c r="BI37">
+        <v>12153</v>
+      </c>
+      <c r="BJ37">
+        <v>37657</v>
+      </c>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="5"/>
+      <c r="BP37">
+        <v>160730</v>
+      </c>
+      <c r="BT37">
+        <v>149263</v>
+      </c>
+      <c r="BV37">
+        <v>165132</v>
+      </c>
+      <c r="CH37">
+        <v>70643</v>
+      </c>
+      <c r="CI37">
+        <v>39017</v>
+      </c>
+      <c r="CO37">
+        <v>232008</v>
+      </c>
+      <c r="CP37">
+        <v>51871</v>
+      </c>
+      <c r="CS37">
+        <v>66558</v>
+      </c>
     </row>
-    <row r="38" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
+    <row r="38" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>134</v>
       </c>
       <c r="B38">
+        <v>160200</v>
+      </c>
+      <c r="E38">
+        <v>62596</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38">
+        <v>70143</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38">
+        <v>20078</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+    </row>
+    <row r="39" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39">
         <v>683773</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="AC38" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="AC39" s="3"/>
     </row>
-    <row r="39" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40">
         <v>182147</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>14652</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>85775</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>65075</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>56879</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>30927</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>22694</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>52887</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>64711</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>12388</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M40" s="2">
         <v>68006</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>43184</v>
       </c>
-      <c r="Q39">
+      <c r="Q40">
         <v>62330</v>
       </c>
-      <c r="R39">
+      <c r="R40">
         <v>21578</v>
       </c>
-      <c r="S39">
+      <c r="S40">
         <v>25629</v>
       </c>
-      <c r="X39">
+      <c r="X40">
         <v>116315</v>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <v>109862</v>
       </c>
-      <c r="Z39">
+      <c r="Z40">
         <v>183193</v>
       </c>
-      <c r="AA39">
+      <c r="AA40">
         <v>88860</v>
       </c>
-      <c r="AB39">
+      <c r="AB40">
         <v>279301</v>
       </c>
-      <c r="AC39" s="3"/>
-      <c r="AM39">
+      <c r="AC40" s="3"/>
+      <c r="AM40">
         <v>44308</v>
       </c>
-      <c r="AN39">
+      <c r="AN40">
         <v>19725</v>
       </c>
-      <c r="AO39">
+      <c r="AO40">
         <v>30018</v>
       </c>
-      <c r="AT39">
+      <c r="AT40">
         <v>39133</v>
       </c>
-      <c r="AX39">
+      <c r="AX40">
         <v>116676</v>
       </c>
-      <c r="AY39">
+      <c r="AY40">
         <v>53287</v>
       </c>
-      <c r="AZ39">
+      <c r="AZ40">
         <v>72206</v>
       </c>
-      <c r="BA39">
+      <c r="BA40">
         <v>54006</v>
       </c>
-      <c r="BB39">
+      <c r="BB40">
         <v>27615</v>
       </c>
-      <c r="BC39">
+      <c r="BC40">
         <v>78184</v>
       </c>
-      <c r="BD39">
+      <c r="BD40">
         <v>18624</v>
       </c>
-      <c r="BE39">
+      <c r="BE40">
         <v>25660</v>
       </c>
-      <c r="BG39">
+      <c r="BG40">
         <v>52382</v>
       </c>
-      <c r="BH39" s="2"/>
-      <c r="BJ39">
+      <c r="BH40" s="2"/>
+      <c r="BJ40">
         <v>104564</v>
       </c>
-      <c r="BL39" s="3"/>
-      <c r="BM39" s="7"/>
-      <c r="BN39">
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40">
         <v>72208</v>
       </c>
-      <c r="BO39">
+      <c r="BO40">
         <v>39412</v>
       </c>
-      <c r="BP39">
+      <c r="BP40">
         <v>116280</v>
       </c>
-      <c r="BQ39">
+      <c r="BQ40">
         <v>24144</v>
       </c>
-      <c r="BS39">
+      <c r="BS40">
         <v>42002</v>
       </c>
-      <c r="BT39">
+      <c r="BT40">
         <v>76328</v>
       </c>
-      <c r="BX39">
+      <c r="BX40">
         <v>25857</v>
       </c>
-      <c r="BY39">
+      <c r="BY40">
         <v>165859</v>
       </c>
-      <c r="BZ39">
+      <c r="BZ40">
         <v>43977</v>
       </c>
-      <c r="CC39">
+      <c r="CC40">
         <v>114353</v>
       </c>
-      <c r="CD39">
+      <c r="CD40">
         <v>61613</v>
       </c>
-      <c r="CI39">
+      <c r="CI40">
         <v>35024</v>
       </c>
-      <c r="CJ39">
+      <c r="CJ40">
         <v>88713</v>
       </c>
-      <c r="CK39">
+      <c r="CK40">
         <v>67317</v>
       </c>
-      <c r="CO39">
+      <c r="CO40">
         <v>18268</v>
       </c>
-      <c r="CP39">
+      <c r="CP40">
         <v>51822</v>
       </c>
-      <c r="CR39">
+      <c r="CQ40">
         <v>109639</v>
       </c>
-      <c r="CS39">
+      <c r="CS40">
         <v>21859</v>
       </c>
-      <c r="CU39">
+      <c r="CU40">
         <v>58310</v>
       </c>
+      <c r="CV40">
+        <v>67329</v>
+      </c>
+      <c r="CW40">
+        <v>220110</v>
+      </c>
+      <c r="CX40">
+        <v>119495</v>
+      </c>
+      <c r="CY40">
+        <v>119786</v>
+      </c>
+      <c r="DA40">
+        <v>255751</v>
+      </c>
+      <c r="DB40">
+        <v>237323</v>
+      </c>
+      <c r="DC40">
+        <v>274830</v>
+      </c>
+      <c r="DD40">
+        <v>129095</v>
+      </c>
+      <c r="DE40">
+        <v>422344</v>
+      </c>
+      <c r="DG40">
+        <v>227649</v>
+      </c>
+      <c r="DH40">
+        <v>329486</v>
+      </c>
+      <c r="DI40">
+        <v>217363</v>
+      </c>
+      <c r="DJ40">
+        <v>257004</v>
+      </c>
+      <c r="DK40">
+        <v>38338</v>
+      </c>
+      <c r="DL40">
+        <v>75734</v>
+      </c>
+      <c r="DM40">
+        <v>117990</v>
+      </c>
+      <c r="DN40">
+        <v>139202</v>
+      </c>
+      <c r="DO40">
+        <v>35009</v>
+      </c>
+      <c r="DP40">
+        <v>48529</v>
+      </c>
+      <c r="DQ40">
+        <v>94068</v>
+      </c>
+      <c r="DR40">
+        <v>83504</v>
+      </c>
+      <c r="DS40">
+        <v>291337</v>
+      </c>
+      <c r="DT40">
+        <v>69941</v>
+      </c>
+      <c r="DU40">
+        <v>64932</v>
+      </c>
+      <c r="DV40">
+        <v>166998</v>
+      </c>
+      <c r="DW40">
+        <v>147940</v>
+      </c>
+      <c r="DX40">
+        <v>255270</v>
+      </c>
+      <c r="DY40">
+        <v>13225</v>
+      </c>
+      <c r="DZ40">
+        <v>172114</v>
+      </c>
+      <c r="EA40">
+        <v>141311</v>
+      </c>
+      <c r="EB40">
+        <v>210202</v>
+      </c>
+      <c r="EC40">
+        <v>110047</v>
+      </c>
+      <c r="ED40">
+        <v>217166</v>
+      </c>
+      <c r="EE40">
+        <v>175897</v>
+      </c>
+      <c r="EF40">
+        <v>357739</v>
+      </c>
+      <c r="EG40">
+        <v>446515</v>
+      </c>
+      <c r="EH40">
+        <v>102610</v>
+      </c>
+      <c r="EI40">
+        <v>127528</v>
+      </c>
+      <c r="EJ40">
+        <v>145105</v>
+      </c>
+      <c r="EK40">
+        <v>53759</v>
+      </c>
+      <c r="EL40">
+        <v>57805</v>
+      </c>
+      <c r="EM40">
+        <v>25691</v>
+      </c>
+      <c r="EN40">
+        <v>47939</v>
+      </c>
+      <c r="EO40">
+        <v>23062</v>
+      </c>
+      <c r="EP40">
+        <v>40082</v>
+      </c>
+      <c r="EQ40">
+        <v>65073</v>
+      </c>
+      <c r="ER40">
+        <v>256632</v>
+      </c>
+      <c r="ES40">
+        <v>27438</v>
+      </c>
+      <c r="ET40">
+        <v>113752</v>
+      </c>
+      <c r="EU40">
+        <v>50352</v>
+      </c>
+      <c r="EV40">
+        <v>231291</v>
+      </c>
+      <c r="EW40">
+        <v>225949</v>
+      </c>
+      <c r="EX40" s="2"/>
+      <c r="EY40">
+        <v>103855</v>
+      </c>
+      <c r="EZ40">
+        <v>57691</v>
+      </c>
+      <c r="FA40">
+        <v>114600</v>
+      </c>
+      <c r="FB40">
+        <v>106961</v>
+      </c>
+      <c r="FC40">
+        <v>218698</v>
+      </c>
+      <c r="FD40">
+        <v>289160</v>
+      </c>
+      <c r="FE40">
+        <v>108866</v>
+      </c>
+      <c r="FG40">
+        <v>156942</v>
+      </c>
+      <c r="FH40">
+        <v>320589</v>
+      </c>
+      <c r="FI40">
+        <v>339246</v>
+      </c>
+      <c r="FJ40">
+        <v>726216</v>
+      </c>
+      <c r="FK40">
+        <v>732279</v>
+      </c>
+      <c r="FL40">
+        <v>122125</v>
+      </c>
+      <c r="FM40">
+        <v>141975</v>
+      </c>
+      <c r="FN40">
+        <v>137924</v>
+      </c>
+      <c r="FO40" s="3">
+        <v>106866</v>
+      </c>
     </row>
-    <row r="40" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40">
+    <row r="41" spans="1:171" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41">
         <v>487530</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>1285173</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>754038</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>876857</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L41" s="2">
         <v>461264</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40">
+      <c r="M41" s="2"/>
+      <c r="N41">
         <v>299655</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2">
         <v>444256</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T41" s="2">
         <v>583350</v>
       </c>
-      <c r="U40">
+      <c r="U41">
         <v>336920</v>
       </c>
-      <c r="V40">
+      <c r="V41">
         <v>411616</v>
       </c>
-      <c r="W40">
+      <c r="W41">
         <v>244562</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X41" s="2">
         <v>701381</v>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <v>857572</v>
       </c>
-      <c r="Z40">
+      <c r="Z41">
         <v>93681</v>
       </c>
-      <c r="AA40">
+      <c r="AA41">
         <v>488644</v>
       </c>
-      <c r="AB40">
+      <c r="AB41">
         <v>1777129</v>
       </c>
-      <c r="AC40" s="4">
+      <c r="AC41" s="4">
         <v>297052</v>
       </c>
-      <c r="AD40">
+      <c r="AD41">
         <v>312202</v>
       </c>
-      <c r="AE40">
+      <c r="AE41">
         <v>218926</v>
       </c>
-      <c r="AF40">
+      <c r="AF41">
         <v>1096386</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="AG41" s="2">
         <v>380847</v>
       </c>
-      <c r="AH40" s="2">
+      <c r="AH41" s="2">
         <v>292559</v>
       </c>
-      <c r="AI40">
+      <c r="AI41">
         <v>201219</v>
       </c>
-      <c r="AJ40" s="2">
+      <c r="AJ41" s="2">
         <v>224597</v>
       </c>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2">
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2">
         <v>285395</v>
       </c>
-      <c r="AM40">
+      <c r="AM41">
         <v>95671</v>
       </c>
-      <c r="AN40">
+      <c r="AN41">
         <v>234928</v>
       </c>
-      <c r="AO40">
+      <c r="AO41">
         <v>321843</v>
       </c>
-      <c r="AP40" s="2">
+      <c r="AP41" s="2">
         <v>1976994</v>
       </c>
-      <c r="AQ40" s="2">
+      <c r="AQ41" s="2">
         <v>290028</v>
       </c>
-      <c r="AR40" s="2">
+      <c r="AR41" s="2">
         <v>579803</v>
       </c>
-      <c r="AS40" s="2"/>
-      <c r="AT40">
+      <c r="AS41" s="2"/>
+      <c r="AT41">
         <v>2522887</v>
       </c>
-      <c r="AU40" s="2">
+      <c r="AU41" s="2">
         <v>38436</v>
       </c>
-      <c r="AV40" s="2">
+      <c r="AV41" s="2">
         <v>880687</v>
       </c>
-      <c r="AW40">
+      <c r="AW41">
         <v>138867</v>
       </c>
-      <c r="AX40">
+      <c r="AX41">
         <v>873326</v>
       </c>
-      <c r="AY40">
+      <c r="AY41">
         <v>733713</v>
       </c>
-      <c r="AZ40">
+      <c r="AZ41">
         <v>745248</v>
       </c>
-      <c r="BA40">
+      <c r="BA41">
         <v>910517</v>
       </c>
-      <c r="BB40">
+      <c r="BB41">
         <v>349554</v>
       </c>
-      <c r="BC40">
+      <c r="BC41">
         <v>571845</v>
       </c>
-      <c r="BD40">
+      <c r="BD41">
         <v>187908</v>
       </c>
-      <c r="BE40">
+      <c r="BE41">
         <v>167361</v>
       </c>
-      <c r="BF40">
+      <c r="BF41">
         <v>720545</v>
       </c>
-      <c r="BG40">
+      <c r="BG41">
         <v>1382436</v>
       </c>
-      <c r="BH40" s="2">
+      <c r="BH41" s="2">
         <v>73733</v>
       </c>
-      <c r="BI40">
+      <c r="BI41">
         <v>385795</v>
       </c>
-      <c r="BJ40">
+      <c r="BJ41">
         <v>24506</v>
       </c>
-      <c r="BL40" s="3">
+      <c r="BL41" s="3">
         <v>44017</v>
       </c>
-      <c r="BM40" s="7"/>
-      <c r="BT40">
+      <c r="BM41" s="5"/>
+      <c r="BT41">
         <v>417674</v>
       </c>
-      <c r="CA40">
+      <c r="CA41">
         <v>129270</v>
       </c>
-      <c r="CB40">
+      <c r="CB41">
         <v>76095</v>
       </c>
-      <c r="CI40">
+      <c r="CI41">
         <v>702758</v>
       </c>
-      <c r="CK40">
+      <c r="CK41">
         <v>81355</v>
       </c>
-      <c r="CL40">
+      <c r="CL41">
         <v>312925</v>
       </c>
-      <c r="CM40">
+      <c r="CM41">
         <v>219890</v>
       </c>
-      <c r="CN40">
+      <c r="CN41">
         <v>165555</v>
       </c>
-      <c r="CO40">
+      <c r="CO41">
         <v>676172</v>
       </c>
-      <c r="CP40">
+      <c r="CP41">
         <v>723270</v>
       </c>
-      <c r="CR40">
+      <c r="CQ41">
         <v>265133</v>
       </c>
-      <c r="CS40">
+      <c r="CS41">
         <v>91398</v>
       </c>
     </row>
